--- a/Code/Results/Cases/Case_0_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_54/res_line/pl_mw.xlsx
@@ -415,34 +415,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.002395084802556013</v>
+        <v>0.002395084802771841</v>
       </c>
       <c r="D2">
-        <v>0.02794186546094934</v>
+        <v>0.0279418654609529</v>
       </c>
       <c r="E2">
-        <v>0.1227253201261505</v>
+        <v>0.1227253201261327</v>
       </c>
       <c r="F2">
-        <v>2.457805501536299</v>
+        <v>2.457805501536313</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.879399166462164</v>
+        <v>1.879399166462207</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.822195793598723</v>
+        <v>8.822195793598837</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>4.774256631598334</v>
+        <v>4.774256631598391</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,34 +453,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.001210335426764075</v>
+        <v>0.001210335426775622</v>
       </c>
       <c r="D3">
-        <v>0.01971935064299402</v>
+        <v>0.01971935064310415</v>
       </c>
       <c r="E3">
-        <v>0.1082536186174323</v>
+        <v>0.1082536186174146</v>
       </c>
       <c r="F3">
-        <v>2.047798259563621</v>
+        <v>2.047798259563592</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.563706079804234</v>
+        <v>1.563706079804206</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.567448495268138</v>
+        <v>7.567448495268081</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>4.084017866220876</v>
+        <v>4.084017866220847</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,34 +491,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0007448056953265336</v>
+        <v>0.0007448056953744953</v>
       </c>
       <c r="D4">
-        <v>0.01582215653475672</v>
+        <v>0.01582215653486685</v>
       </c>
       <c r="E4">
-        <v>0.09953285964909853</v>
+        <v>0.09953285964910918</v>
       </c>
       <c r="F4">
-        <v>1.81857919612834</v>
+        <v>1.818579196128312</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.387538562672219</v>
+        <v>1.387538562672191</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.81698570835789</v>
+        <v>6.816985708357862</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>3.673019580754428</v>
+        <v>3.673019580754399</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,16 +529,16 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0006094103118501337</v>
+        <v>0.0006094103115508176</v>
       </c>
       <c r="D5">
-        <v>0.01447326787287651</v>
+        <v>0.01447326787287295</v>
       </c>
       <c r="E5">
-        <v>0.09601364374921317</v>
+        <v>0.0960136437491812</v>
       </c>
       <c r="F5">
-        <v>1.729866391333758</v>
+        <v>1.729866391333744</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.515137454324758</v>
+        <v>6.515137454324702</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -567,22 +567,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0005899140356619981</v>
+        <v>0.0005899140356770971</v>
       </c>
       <c r="D6">
-        <v>0.01426245066012299</v>
+        <v>0.01426245066002352</v>
       </c>
       <c r="E6">
-        <v>0.09543118898196923</v>
+        <v>0.09543118898196212</v>
       </c>
       <c r="F6">
-        <v>1.715394359369299</v>
+        <v>1.715394359369256</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.308324919658503</v>
+        <v>1.308324919658475</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>3.480858197216619</v>
+        <v>3.480858197216634</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0007427733767473299</v>
+        <v>0.0007427733767464417</v>
       </c>
       <c r="D7">
-        <v>0.01580305551484784</v>
+        <v>0.01580305551495442</v>
       </c>
       <c r="E7">
-        <v>0.09948526657545287</v>
+        <v>0.09948526657543866</v>
       </c>
       <c r="F7">
-        <v>1.817364920496544</v>
+        <v>1.817364920496573</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.386606036350173</v>
+        <v>1.386606036350202</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.812900043873896</v>
+        <v>6.812900043873924</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>3.670785842935032</v>
+        <v>3.670785842935004</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,22 +643,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.001924467779787165</v>
+        <v>0.001924467779789829</v>
       </c>
       <c r="D8">
-        <v>0.02483404610866913</v>
+        <v>0.02483404610866558</v>
       </c>
       <c r="E8">
-        <v>0.1176966771713523</v>
+        <v>0.1176966771712955</v>
       </c>
       <c r="F8">
-        <v>2.311114018325483</v>
+        <v>2.311114018325526</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.766373970101341</v>
+        <v>1.766373970101355</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>4.533170102116443</v>
+        <v>4.533170102116514</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,28 +681,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.007012530089395064</v>
+        <v>0.007012530089598457</v>
       </c>
       <c r="D9">
-        <v>0.05468147190391903</v>
+        <v>0.05468147190391193</v>
       </c>
       <c r="E9">
-        <v>0.1551134233559566</v>
+        <v>0.1551134233559281</v>
       </c>
       <c r="F9">
-        <v>3.515001101749903</v>
+        <v>3.515001101749959</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.69600249819085</v>
+        <v>2.696002498190907</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.68628384261189</v>
+        <v>11.68628384261206</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01383888752643836</v>
+        <v>0.01383888752572071</v>
       </c>
       <c r="D10">
-        <v>0.09004054994245791</v>
+        <v>0.0900405499425716</v>
       </c>
       <c r="E10">
-        <v>0.1843812486392338</v>
+        <v>0.1843812486391911</v>
       </c>
       <c r="F10">
         <v>4.655257231296247</v>
@@ -734,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3.579859806869834</v>
+        <v>3.579859806869877</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>14.36339696522199</v>
+        <v>14.36339696522197</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.867942326356001</v>
+        <v>7.867942326356086</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,16 +757,16 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01814460118887196</v>
+        <v>0.01814460118907313</v>
       </c>
       <c r="D11">
-        <v>0.1113131301238113</v>
+        <v>0.1113131301236834</v>
       </c>
       <c r="E11">
-        <v>0.1983298874974153</v>
+        <v>0.1983298874974082</v>
       </c>
       <c r="F11">
-        <v>5.270719340615472</v>
+        <v>5.270719340615443</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.613214723872545</v>
+        <v>8.613214723872574</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,34 +795,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.0200220618984206</v>
+        <v>0.02002206189821143</v>
       </c>
       <c r="D12">
-        <v>0.1204321527885526</v>
+        <v>0.1204321527884105</v>
       </c>
       <c r="E12">
-        <v>0.2037341888220325</v>
+        <v>0.2037341888220041</v>
       </c>
       <c r="F12">
-        <v>5.523347199689852</v>
+        <v>5.523347199689937</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.254421347167565</v>
+        <v>4.25442134716765</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>16.19542610080219</v>
+        <v>16.19542610080236</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.907793430244311</v>
+        <v>8.90779343024434</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,34 +833,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01960510981513996</v>
+        <v>0.01960510981533226</v>
       </c>
       <c r="D13">
-        <v>0.1184139881922306</v>
+        <v>0.1184139881919961</v>
       </c>
       <c r="E13">
-        <v>0.202564204662707</v>
+        <v>0.2025642046626999</v>
       </c>
       <c r="F13">
-        <v>5.4679471440393</v>
+        <v>5.467947144039385</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.211333844451403</v>
+        <v>4.211333844451445</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>16.08300627703704</v>
+        <v>16.08300627703721</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.843724549626074</v>
+        <v>8.84372454962616</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,34 +871,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01829354302522512</v>
+        <v>0.01829354302521979</v>
       </c>
       <c r="D14">
-        <v>0.1120396200590292</v>
+        <v>0.1120396200589227</v>
       </c>
       <c r="E14">
-        <v>0.1987718292179821</v>
+        <v>0.1987718292180105</v>
       </c>
       <c r="F14">
-        <v>5.291068328997284</v>
+        <v>5.291068328997369</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.073799580301937</v>
+        <v>4.07379958030198</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>15.72016706156913</v>
+        <v>15.72016706156916</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.637175390503245</v>
+        <v>8.637175390503302</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,34 +909,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01752520337851493</v>
+        <v>0.01752520337846653</v>
       </c>
       <c r="D15">
-        <v>0.1082858750493685</v>
+        <v>0.1082858750492477</v>
       </c>
       <c r="E15">
-        <v>0.1964659445779944</v>
+        <v>0.1964659445779731</v>
       </c>
       <c r="F15">
-        <v>5.185488960284488</v>
+        <v>5.185488960284374</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>3.991729873179878</v>
+        <v>3.991729873179807</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>15.50067909653671</v>
+        <v>15.50067909653654</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.51240321840686</v>
+        <v>8.512403218406803</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,34 +947,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01358719963228339</v>
+        <v>0.01358719963275323</v>
       </c>
       <c r="D16">
-        <v>0.08877843013688391</v>
+        <v>0.08877843013701892</v>
       </c>
       <c r="E16">
-        <v>0.1834848265199156</v>
+        <v>0.1834848265198872</v>
       </c>
       <c r="F16">
-        <v>4.617406258373251</v>
+        <v>4.617406258373194</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>3.550477639310941</v>
+        <v>3.550477639310927</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>14.27985625760797</v>
+        <v>14.27985625760783</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.820735847969615</v>
+        <v>7.820735847969587</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,13 +985,13 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01152121583836241</v>
+        <v>0.0115212158385587</v>
       </c>
       <c r="D17">
         <v>0.07832128926560955</v>
       </c>
       <c r="E17">
-        <v>0.1757024476048379</v>
+        <v>0.175702447604845</v>
       </c>
       <c r="F17">
         <v>4.296940994558554</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>13.55899748946996</v>
+        <v>13.5589974894699</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.414142433501127</v>
+        <v>7.414142433501155</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,34 +1023,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01043996571291039</v>
+        <v>0.0104399657129095</v>
       </c>
       <c r="D18">
-        <v>0.07276958116857912</v>
+        <v>0.0727695811686786</v>
       </c>
       <c r="E18">
-        <v>0.1712835820575549</v>
+        <v>0.1712835820575869</v>
       </c>
       <c r="F18">
-        <v>4.121277159349177</v>
+        <v>4.121277159349262</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>3.165609797657794</v>
+        <v>3.165609797657837</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>13.15304706670574</v>
+        <v>13.15304706670585</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.185750008779479</v>
+        <v>7.185750008779536</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,34 +1061,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01009054073628857</v>
+        <v>0.01009054073628768</v>
       </c>
       <c r="D19">
-        <v>0.07096203137927404</v>
+        <v>0.07096203137939483</v>
       </c>
       <c r="E19">
-        <v>0.1697965168108766</v>
+        <v>0.1697965168108801</v>
       </c>
       <c r="F19">
-        <v>4.063155469046279</v>
+        <v>4.063155469046251</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.120554978430107</v>
+        <v>3.120554978430121</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>13.01695435581871</v>
+        <v>13.01695435581874</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.109275192254216</v>
+        <v>7.109275192254159</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01172963815719186</v>
+        <v>0.01172963815694494</v>
       </c>
       <c r="D20">
-        <v>0.0793847326326258</v>
+        <v>0.07938473263261869</v>
       </c>
       <c r="E20">
-        <v>0.1765247716511027</v>
+        <v>0.1765247716511418</v>
       </c>
       <c r="F20">
         <v>4.330126147566375</v>
@@ -1114,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3.327563080438537</v>
+        <v>3.327563080438523</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>13.63480395249769</v>
+        <v>13.63480395249772</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.456838071604267</v>
+        <v>7.456838071604238</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,34 +1137,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.0186712881604838</v>
+        <v>0.01867128816030705</v>
       </c>
       <c r="D21">
-        <v>0.1138796900202621</v>
+        <v>0.1138796900201555</v>
       </c>
       <c r="E21">
         <v>0.1998821131285382</v>
       </c>
       <c r="F21">
-        <v>5.342431434415147</v>
+        <v>5.34243143441509</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.11373226579434</v>
+        <v>4.113732265794255</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>15.82615199079618</v>
+        <v>15.82615199079615</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.697471150093889</v>
+        <v>8.697471150093833</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,34 +1175,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.02471714878383269</v>
+        <v>0.02471714878357156</v>
       </c>
       <c r="D22">
-        <v>0.1429191160921235</v>
+        <v>0.1429191160920098</v>
       </c>
       <c r="E22">
-        <v>0.2158853448880222</v>
+        <v>0.2158853448880009</v>
       </c>
       <c r="F22">
-        <v>6.123236707960558</v>
+        <v>6.123236707960473</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.721295182450092</v>
+        <v>4.721295182450035</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>17.37739397282348</v>
+        <v>17.37739397282343</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.583540649471502</v>
+        <v>9.583540649471473</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,34 +1213,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.02131570712990927</v>
+        <v>0.02131570713014863</v>
       </c>
       <c r="D23">
-        <v>0.1266701192156532</v>
+        <v>0.126670119215845</v>
       </c>
       <c r="E23">
-        <v>0.2072626006146621</v>
+        <v>0.2072626006146763</v>
       </c>
       <c r="F23">
-        <v>5.692860075492689</v>
+        <v>5.692860075492831</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.386290862647641</v>
+        <v>4.386290862647769</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>16.53588020947063</v>
+        <v>16.5358802094708</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.102033510544658</v>
+        <v>9.102033510544743</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,13 +1251,13 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01163508365915078</v>
+        <v>0.01163508365915211</v>
       </c>
       <c r="D24">
-        <v>0.07890253767286026</v>
+        <v>0.07890253767275368</v>
       </c>
       <c r="E24">
-        <v>0.1761528287634739</v>
+        <v>0.1761528287634668</v>
       </c>
       <c r="F24">
         <v>4.315096809407123</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>13.60050581788272</v>
+        <v>13.60050581788261</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.437518909838616</v>
+        <v>7.437518909838587</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,28 +1289,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.005223661680689773</v>
+        <v>0.005223661680889613</v>
       </c>
       <c r="D25">
-        <v>0.04480698316218223</v>
+        <v>0.04480698316216802</v>
       </c>
       <c r="E25">
-        <v>0.1447444379479492</v>
+        <v>0.1447444379479421</v>
       </c>
       <c r="F25">
-        <v>3.154677346061391</v>
+        <v>3.154677346061419</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.417320753914268</v>
+        <v>2.417320753914282</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.75964606859293</v>
+        <v>10.75964606859296</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_54/res_line/pl_mw.xlsx
@@ -415,34 +415,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.002395084802771841</v>
+        <v>0.002395084802556013</v>
       </c>
       <c r="D2">
-        <v>0.0279418654609529</v>
+        <v>0.02794186546094934</v>
       </c>
       <c r="E2">
-        <v>0.1227253201261327</v>
+        <v>0.1227253201261505</v>
       </c>
       <c r="F2">
-        <v>2.457805501536313</v>
+        <v>2.457805501536299</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.879399166462207</v>
+        <v>1.879399166462164</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.822195793598837</v>
+        <v>8.822195793598723</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>4.774256631598391</v>
+        <v>4.774256631598334</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,34 +453,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.001210335426775622</v>
+        <v>0.001210335426764075</v>
       </c>
       <c r="D3">
-        <v>0.01971935064310415</v>
+        <v>0.01971935064299402</v>
       </c>
       <c r="E3">
-        <v>0.1082536186174146</v>
+        <v>0.1082536186174323</v>
       </c>
       <c r="F3">
-        <v>2.047798259563592</v>
+        <v>2.047798259563621</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.563706079804206</v>
+        <v>1.563706079804234</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.567448495268081</v>
+        <v>7.567448495268138</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>4.084017866220847</v>
+        <v>4.084017866220876</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,34 +491,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0007448056953744953</v>
+        <v>0.0007448056953265336</v>
       </c>
       <c r="D4">
-        <v>0.01582215653486685</v>
+        <v>0.01582215653475672</v>
       </c>
       <c r="E4">
-        <v>0.09953285964910918</v>
+        <v>0.09953285964909853</v>
       </c>
       <c r="F4">
-        <v>1.818579196128312</v>
+        <v>1.81857919612834</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.387538562672191</v>
+        <v>1.387538562672219</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.816985708357862</v>
+        <v>6.81698570835789</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>3.673019580754399</v>
+        <v>3.673019580754428</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,16 +529,16 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0006094103115508176</v>
+        <v>0.0006094103118501337</v>
       </c>
       <c r="D5">
-        <v>0.01447326787287295</v>
+        <v>0.01447326787287651</v>
       </c>
       <c r="E5">
-        <v>0.0960136437491812</v>
+        <v>0.09601364374921317</v>
       </c>
       <c r="F5">
-        <v>1.729866391333744</v>
+        <v>1.729866391333758</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.515137454324702</v>
+        <v>6.515137454324758</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -567,22 +567,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0005899140356770971</v>
+        <v>0.0005899140356619981</v>
       </c>
       <c r="D6">
-        <v>0.01426245066002352</v>
+        <v>0.01426245066012299</v>
       </c>
       <c r="E6">
-        <v>0.09543118898196212</v>
+        <v>0.09543118898196923</v>
       </c>
       <c r="F6">
-        <v>1.715394359369256</v>
+        <v>1.715394359369299</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.308324919658475</v>
+        <v>1.308324919658503</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>3.480858197216634</v>
+        <v>3.480858197216619</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0007427733767464417</v>
+        <v>0.0007427733767473299</v>
       </c>
       <c r="D7">
-        <v>0.01580305551495442</v>
+        <v>0.01580305551484784</v>
       </c>
       <c r="E7">
-        <v>0.09948526657543866</v>
+        <v>0.09948526657545287</v>
       </c>
       <c r="F7">
-        <v>1.817364920496573</v>
+        <v>1.817364920496544</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.386606036350202</v>
+        <v>1.386606036350173</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.812900043873924</v>
+        <v>6.812900043873896</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>3.670785842935004</v>
+        <v>3.670785842935032</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,22 +643,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.001924467779789829</v>
+        <v>0.001924467779787165</v>
       </c>
       <c r="D8">
-        <v>0.02483404610866558</v>
+        <v>0.02483404610866913</v>
       </c>
       <c r="E8">
-        <v>0.1176966771712955</v>
+        <v>0.1176966771713523</v>
       </c>
       <c r="F8">
-        <v>2.311114018325526</v>
+        <v>2.311114018325483</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.766373970101355</v>
+        <v>1.766373970101341</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>4.533170102116514</v>
+        <v>4.533170102116443</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,28 +681,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.007012530089598457</v>
+        <v>0.007012530089395064</v>
       </c>
       <c r="D9">
-        <v>0.05468147190391193</v>
+        <v>0.05468147190391903</v>
       </c>
       <c r="E9">
-        <v>0.1551134233559281</v>
+        <v>0.1551134233559566</v>
       </c>
       <c r="F9">
-        <v>3.515001101749959</v>
+        <v>3.515001101749903</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.696002498190907</v>
+        <v>2.69600249819085</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.68628384261206</v>
+        <v>11.68628384261189</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01383888752572071</v>
+        <v>0.01383888752643836</v>
       </c>
       <c r="D10">
-        <v>0.0900405499425716</v>
+        <v>0.09004054994245791</v>
       </c>
       <c r="E10">
-        <v>0.1843812486391911</v>
+        <v>0.1843812486392338</v>
       </c>
       <c r="F10">
         <v>4.655257231296247</v>
@@ -734,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3.579859806869877</v>
+        <v>3.579859806869834</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>14.36339696522197</v>
+        <v>14.36339696522199</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.867942326356086</v>
+        <v>7.867942326356001</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,16 +757,16 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01814460118907313</v>
+        <v>0.01814460118887196</v>
       </c>
       <c r="D11">
-        <v>0.1113131301236834</v>
+        <v>0.1113131301238113</v>
       </c>
       <c r="E11">
-        <v>0.1983298874974082</v>
+        <v>0.1983298874974153</v>
       </c>
       <c r="F11">
-        <v>5.270719340615443</v>
+        <v>5.270719340615472</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.613214723872574</v>
+        <v>8.613214723872545</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,34 +795,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.02002206189821143</v>
+        <v>0.0200220618984206</v>
       </c>
       <c r="D12">
-        <v>0.1204321527884105</v>
+        <v>0.1204321527885526</v>
       </c>
       <c r="E12">
-        <v>0.2037341888220041</v>
+        <v>0.2037341888220325</v>
       </c>
       <c r="F12">
-        <v>5.523347199689937</v>
+        <v>5.523347199689852</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.25442134716765</v>
+        <v>4.254421347167565</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>16.19542610080236</v>
+        <v>16.19542610080219</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.90779343024434</v>
+        <v>8.907793430244311</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,34 +833,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01960510981533226</v>
+        <v>0.01960510981513996</v>
       </c>
       <c r="D13">
-        <v>0.1184139881919961</v>
+        <v>0.1184139881922306</v>
       </c>
       <c r="E13">
-        <v>0.2025642046626999</v>
+        <v>0.202564204662707</v>
       </c>
       <c r="F13">
-        <v>5.467947144039385</v>
+        <v>5.4679471440393</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.211333844451445</v>
+        <v>4.211333844451403</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>16.08300627703721</v>
+        <v>16.08300627703704</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.84372454962616</v>
+        <v>8.843724549626074</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,34 +871,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01829354302521979</v>
+        <v>0.01829354302522512</v>
       </c>
       <c r="D14">
-        <v>0.1120396200589227</v>
+        <v>0.1120396200590292</v>
       </c>
       <c r="E14">
-        <v>0.1987718292180105</v>
+        <v>0.1987718292179821</v>
       </c>
       <c r="F14">
-        <v>5.291068328997369</v>
+        <v>5.291068328997284</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.07379958030198</v>
+        <v>4.073799580301937</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>15.72016706156916</v>
+        <v>15.72016706156913</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.637175390503302</v>
+        <v>8.637175390503245</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,34 +909,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01752520337846653</v>
+        <v>0.01752520337851493</v>
       </c>
       <c r="D15">
-        <v>0.1082858750492477</v>
+        <v>0.1082858750493685</v>
       </c>
       <c r="E15">
-        <v>0.1964659445779731</v>
+        <v>0.1964659445779944</v>
       </c>
       <c r="F15">
-        <v>5.185488960284374</v>
+        <v>5.185488960284488</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>3.991729873179807</v>
+        <v>3.991729873179878</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>15.50067909653654</v>
+        <v>15.50067909653671</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.512403218406803</v>
+        <v>8.51240321840686</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,34 +947,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01358719963275323</v>
+        <v>0.01358719963228339</v>
       </c>
       <c r="D16">
-        <v>0.08877843013701892</v>
+        <v>0.08877843013688391</v>
       </c>
       <c r="E16">
-        <v>0.1834848265198872</v>
+        <v>0.1834848265199156</v>
       </c>
       <c r="F16">
-        <v>4.617406258373194</v>
+        <v>4.617406258373251</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>3.550477639310927</v>
+        <v>3.550477639310941</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>14.27985625760783</v>
+        <v>14.27985625760797</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.820735847969587</v>
+        <v>7.820735847969615</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,13 +985,13 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0115212158385587</v>
+        <v>0.01152121583836241</v>
       </c>
       <c r="D17">
         <v>0.07832128926560955</v>
       </c>
       <c r="E17">
-        <v>0.175702447604845</v>
+        <v>0.1757024476048379</v>
       </c>
       <c r="F17">
         <v>4.296940994558554</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>13.5589974894699</v>
+        <v>13.55899748946996</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.414142433501155</v>
+        <v>7.414142433501127</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,34 +1023,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0104399657129095</v>
+        <v>0.01043996571291039</v>
       </c>
       <c r="D18">
-        <v>0.0727695811686786</v>
+        <v>0.07276958116857912</v>
       </c>
       <c r="E18">
-        <v>0.1712835820575869</v>
+        <v>0.1712835820575549</v>
       </c>
       <c r="F18">
-        <v>4.121277159349262</v>
+        <v>4.121277159349177</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>3.165609797657837</v>
+        <v>3.165609797657794</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>13.15304706670585</v>
+        <v>13.15304706670574</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.185750008779536</v>
+        <v>7.185750008779479</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,34 +1061,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01009054073628768</v>
+        <v>0.01009054073628857</v>
       </c>
       <c r="D19">
-        <v>0.07096203137939483</v>
+        <v>0.07096203137927404</v>
       </c>
       <c r="E19">
-        <v>0.1697965168108801</v>
+        <v>0.1697965168108766</v>
       </c>
       <c r="F19">
-        <v>4.063155469046251</v>
+        <v>4.063155469046279</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.120554978430121</v>
+        <v>3.120554978430107</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>13.01695435581874</v>
+        <v>13.01695435581871</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.109275192254159</v>
+        <v>7.109275192254216</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01172963815694494</v>
+        <v>0.01172963815719186</v>
       </c>
       <c r="D20">
-        <v>0.07938473263261869</v>
+        <v>0.0793847326326258</v>
       </c>
       <c r="E20">
-        <v>0.1765247716511418</v>
+        <v>0.1765247716511027</v>
       </c>
       <c r="F20">
         <v>4.330126147566375</v>
@@ -1114,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3.327563080438523</v>
+        <v>3.327563080438537</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>13.63480395249772</v>
+        <v>13.63480395249769</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.456838071604238</v>
+        <v>7.456838071604267</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,34 +1137,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01867128816030705</v>
+        <v>0.0186712881604838</v>
       </c>
       <c r="D21">
-        <v>0.1138796900201555</v>
+        <v>0.1138796900202621</v>
       </c>
       <c r="E21">
         <v>0.1998821131285382</v>
       </c>
       <c r="F21">
-        <v>5.34243143441509</v>
+        <v>5.342431434415147</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.113732265794255</v>
+        <v>4.11373226579434</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>15.82615199079615</v>
+        <v>15.82615199079618</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.697471150093833</v>
+        <v>8.697471150093889</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,34 +1175,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.02471714878357156</v>
+        <v>0.02471714878383269</v>
       </c>
       <c r="D22">
-        <v>0.1429191160920098</v>
+        <v>0.1429191160921235</v>
       </c>
       <c r="E22">
-        <v>0.2158853448880009</v>
+        <v>0.2158853448880222</v>
       </c>
       <c r="F22">
-        <v>6.123236707960473</v>
+        <v>6.123236707960558</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.721295182450035</v>
+        <v>4.721295182450092</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>17.37739397282343</v>
+        <v>17.37739397282348</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.583540649471473</v>
+        <v>9.583540649471502</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,34 +1213,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.02131570713014863</v>
+        <v>0.02131570712990927</v>
       </c>
       <c r="D23">
-        <v>0.126670119215845</v>
+        <v>0.1266701192156532</v>
       </c>
       <c r="E23">
-        <v>0.2072626006146763</v>
+        <v>0.2072626006146621</v>
       </c>
       <c r="F23">
-        <v>5.692860075492831</v>
+        <v>5.692860075492689</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.386290862647769</v>
+        <v>4.386290862647641</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>16.5358802094708</v>
+        <v>16.53588020947063</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.102033510544743</v>
+        <v>9.102033510544658</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,13 +1251,13 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01163508365915211</v>
+        <v>0.01163508365915078</v>
       </c>
       <c r="D24">
-        <v>0.07890253767275368</v>
+        <v>0.07890253767286026</v>
       </c>
       <c r="E24">
-        <v>0.1761528287634668</v>
+        <v>0.1761528287634739</v>
       </c>
       <c r="F24">
         <v>4.315096809407123</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>13.60050581788261</v>
+        <v>13.60050581788272</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.437518909838587</v>
+        <v>7.437518909838616</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,28 +1289,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.005223661680889613</v>
+        <v>0.005223661680689773</v>
       </c>
       <c r="D25">
-        <v>0.04480698316216802</v>
+        <v>0.04480698316218223</v>
       </c>
       <c r="E25">
-        <v>0.1447444379479421</v>
+        <v>0.1447444379479492</v>
       </c>
       <c r="F25">
-        <v>3.154677346061419</v>
+        <v>3.154677346061391</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.417320753914282</v>
+        <v>2.417320753914268</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.75964606859296</v>
+        <v>10.75964606859293</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_54/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.002395084802556013</v>
+        <v>0.001741033036442019</v>
       </c>
       <c r="D2">
-        <v>0.02794186546094934</v>
+        <v>0.02564190011905154</v>
       </c>
       <c r="E2">
-        <v>0.1227253201261505</v>
+        <v>0.1218373618947162</v>
       </c>
       <c r="F2">
-        <v>2.457805501536299</v>
+        <v>2.428545578548565</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0006981353085888175</v>
       </c>
       <c r="H2">
-        <v>1.879399166462164</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.856137020600315</v>
       </c>
       <c r="J2">
-        <v>8.822195793598723</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>8.770848456846835</v>
       </c>
       <c r="L2">
-        <v>4.774256631598334</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>4.74726478206891</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.001210335426764075</v>
+        <v>0.0008159512703214133</v>
       </c>
       <c r="D3">
-        <v>0.01971935064299402</v>
+        <v>0.01826130494622547</v>
       </c>
       <c r="E3">
-        <v>0.1082536186174323</v>
+        <v>0.1071760892620581</v>
       </c>
       <c r="F3">
-        <v>2.047798259563621</v>
+        <v>2.029146383879009</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007155625018489449</v>
       </c>
       <c r="H3">
-        <v>1.563706079804234</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.548850538655316</v>
       </c>
       <c r="J3">
-        <v>7.567448495268138</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>7.524318847809525</v>
       </c>
       <c r="L3">
-        <v>4.084017866220876</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>4.061831615018122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0007448056953265336</v>
+        <v>0.0005063782795353688</v>
       </c>
       <c r="D4">
-        <v>0.01582215653475672</v>
+        <v>0.01486541036575062</v>
       </c>
       <c r="E4">
-        <v>0.09953285964909853</v>
+        <v>0.09833590821139637</v>
       </c>
       <c r="F4">
-        <v>1.81857919612834</v>
+        <v>1.806151869653775</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007262817351654299</v>
       </c>
       <c r="H4">
-        <v>1.387538562672219</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.377617150588193</v>
       </c>
       <c r="J4">
-        <v>6.81698570835789</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>6.77861431842436</v>
       </c>
       <c r="L4">
-        <v>3.673019580754428</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>3.653603498542481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0006094103118501337</v>
+        <v>0.0004340281440899929</v>
       </c>
       <c r="D5">
-        <v>0.01447326787287651</v>
+        <v>0.0137183119399289</v>
       </c>
       <c r="E5">
-        <v>0.09601364374921317</v>
+        <v>0.09476722109673119</v>
       </c>
       <c r="F5">
-        <v>1.729866391333758</v>
+        <v>1.719925387689656</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007306675590063187</v>
       </c>
       <c r="H5">
-        <v>1.319431265955089</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.31148103149701</v>
       </c>
       <c r="J5">
-        <v>6.515137454324758</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>6.478651848858703</v>
       </c>
       <c r="L5">
-        <v>3.508103963705054</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>3.489783210366383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0005899140356619981</v>
+        <v>0.0004249788752606065</v>
       </c>
       <c r="D6">
-        <v>0.01426245066012299</v>
+        <v>0.01354088686174393</v>
       </c>
       <c r="E6">
-        <v>0.09543118898196923</v>
+        <v>0.09417650172794723</v>
       </c>
       <c r="F6">
-        <v>1.715394359369299</v>
+        <v>1.705863726800914</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007313972216008714</v>
       </c>
       <c r="H6">
-        <v>1.308324919658503</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.300700047809116</v>
       </c>
       <c r="J6">
-        <v>6.465228567879223</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>6.429053347642252</v>
       </c>
       <c r="L6">
-        <v>3.480858197216619</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>3.462717587679606</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0007427733767473299</v>
+        <v>0.0005051978482750741</v>
       </c>
       <c r="D7">
-        <v>0.01580305551484784</v>
+        <v>0.01484903920502845</v>
       </c>
       <c r="E7">
-        <v>0.09948526657545287</v>
+        <v>0.09828765127224059</v>
       </c>
       <c r="F7">
-        <v>1.817364920496544</v>
+        <v>1.804971303200716</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007263407971387213</v>
       </c>
       <c r="H7">
-        <v>1.386606036350173</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.376711348019697</v>
       </c>
       <c r="J7">
-        <v>6.812900043873896</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>6.774554280170292</v>
       </c>
       <c r="L7">
-        <v>3.670785842935032</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>3.651384655011825</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.001924467779787165</v>
+        <v>0.001360923386729773</v>
       </c>
       <c r="D8">
-        <v>0.02483404610866913</v>
+        <v>0.02282861171363848</v>
       </c>
       <c r="E8">
-        <v>0.1176966771713523</v>
+        <v>0.1167439547795617</v>
       </c>
       <c r="F8">
-        <v>2.311114018325483</v>
+        <v>2.285587124009325</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007041488588168172</v>
       </c>
       <c r="H8">
-        <v>1.766373970101341</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.746069843560903</v>
       </c>
       <c r="J8">
-        <v>8.384721546577651</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>8.336280472360613</v>
       </c>
       <c r="L8">
-        <v>4.533170102116443</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>4.507880874772553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.007012530089395064</v>
+        <v>0.005758668970216263</v>
       </c>
       <c r="D9">
-        <v>0.05468147190391903</v>
+        <v>0.05039729204820276</v>
       </c>
       <c r="E9">
-        <v>0.1551134233559566</v>
+        <v>0.1546190181228724</v>
       </c>
       <c r="F9">
-        <v>3.515001101749903</v>
+        <v>3.459979124461483</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0006600292252922947</v>
       </c>
       <c r="H9">
-        <v>2.69600249819085</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.652334691902908</v>
       </c>
       <c r="J9">
-        <v>11.68628384261189</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>11.61452548276944</v>
       </c>
       <c r="L9">
-        <v>6.363943379768813</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>6.324901383102684</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01383888752643836</v>
+        <v>0.01199441244194599</v>
       </c>
       <c r="D10">
-        <v>0.09004054994245791</v>
+        <v>0.0837414502148448</v>
       </c>
       <c r="E10">
-        <v>0.1843812486392338</v>
+        <v>0.1842127190806764</v>
       </c>
       <c r="F10">
-        <v>4.655257231296247</v>
+        <v>4.573013550892568</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0006257881418918418</v>
       </c>
       <c r="H10">
-        <v>3.579859806869834</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.514642280026777</v>
       </c>
       <c r="J10">
-        <v>14.36339696522199</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>14.26954541517856</v>
       </c>
       <c r="L10">
-        <v>7.867942326356001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>7.81568440888438</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01814460118887196</v>
+        <v>0.01599057787538749</v>
       </c>
       <c r="D11">
-        <v>0.1113131301238113</v>
+        <v>0.1039317970496612</v>
       </c>
       <c r="E11">
-        <v>0.1983298874974153</v>
+        <v>0.1983073329911349</v>
       </c>
       <c r="F11">
-        <v>5.270719340615472</v>
+        <v>5.173441153091204</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.000609287931958894</v>
       </c>
       <c r="H11">
-        <v>4.057980301734275</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.980864890487396</v>
       </c>
       <c r="J11">
-        <v>15.67803533361493</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>15.57180508054262</v>
       </c>
       <c r="L11">
-        <v>8.613214723872545</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>8.553479909502727</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.0200220618984206</v>
+        <v>0.01774130244198258</v>
       </c>
       <c r="D12">
-        <v>0.1204321527885526</v>
+        <v>0.1126024159944308</v>
       </c>
       <c r="E12">
-        <v>0.2037341888220325</v>
+        <v>0.2037664851375425</v>
       </c>
       <c r="F12">
-        <v>5.523347199689852</v>
+        <v>5.419760692426109</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0006028358041580143</v>
       </c>
       <c r="H12">
-        <v>4.254421347167565</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.172314388987573</v>
       </c>
       <c r="J12">
-        <v>16.19542610080219</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>16.08397055119514</v>
       </c>
       <c r="L12">
-        <v>8.907793430244311</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>8.844888049392694</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01960510981513996</v>
+        <v>0.01735215465169482</v>
       </c>
       <c r="D13">
-        <v>0.1184139881922306</v>
+        <v>0.1106828900334733</v>
       </c>
       <c r="E13">
-        <v>0.202564204662707</v>
+        <v>0.202584710533678</v>
       </c>
       <c r="F13">
-        <v>5.4679471440393</v>
+        <v>5.365752166176861</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0006042359702050715</v>
       </c>
       <c r="H13">
-        <v>4.211333844451403</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.130327922099852</v>
       </c>
       <c r="J13">
-        <v>16.08300627703704</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>15.97270483979912</v>
       </c>
       <c r="L13">
-        <v>8.843724549626074</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>8.78152016429064</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01829354302522512</v>
+        <v>0.0161293136998526</v>
       </c>
       <c r="D14">
-        <v>0.1120396200590292</v>
+        <v>0.1046222916369715</v>
       </c>
       <c r="E14">
-        <v>0.1987718292179821</v>
+        <v>0.1987537971130422</v>
       </c>
       <c r="F14">
-        <v>5.291068328997284</v>
+        <v>5.193285410825951</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0006087617296779567</v>
       </c>
       <c r="H14">
-        <v>4.073799580301937</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.996284780078526</v>
       </c>
       <c r="J14">
-        <v>15.72016706156913</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>15.6135193756561</v>
       </c>
       <c r="L14">
-        <v>8.637175390503245</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>8.577187595758545</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01752520337851493</v>
+        <v>0.01541393190416285</v>
       </c>
       <c r="D15">
-        <v>0.1082858750493685</v>
+        <v>0.101055104587239</v>
       </c>
       <c r="E15">
-        <v>0.1964659445779944</v>
+        <v>0.1964242452613902</v>
       </c>
       <c r="F15">
-        <v>5.185488960284488</v>
+        <v>5.090318779970232</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0006115046462734131</v>
       </c>
       <c r="H15">
-        <v>3.991729873179878</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.916282536575537</v>
       </c>
       <c r="J15">
-        <v>15.50067909653671</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>15.39619100314314</v>
       </c>
       <c r="L15">
-        <v>8.51240321840686</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>8.453723637033761</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01358719963228339</v>
+        <v>0.01176187107490589</v>
       </c>
       <c r="D16">
-        <v>0.08877843013688391</v>
+        <v>0.08254566822427734</v>
       </c>
       <c r="E16">
-        <v>0.1834848265199156</v>
+        <v>0.1833067064453218</v>
       </c>
       <c r="F16">
-        <v>4.617406258373251</v>
+        <v>4.536075068869565</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0006268425306678154</v>
       </c>
       <c r="H16">
-        <v>3.550477639310941</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.485982313141292</v>
       </c>
       <c r="J16">
-        <v>14.27985625760797</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.18675234876318</v>
       </c>
       <c r="L16">
-        <v>7.820735847969615</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>7.7689279202568</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01152121583836241</v>
+        <v>0.009858889035455398</v>
       </c>
       <c r="D17">
-        <v>0.07832128926560955</v>
+        <v>0.07265047933310598</v>
       </c>
       <c r="E17">
-        <v>0.1757024476048379</v>
+        <v>0.1754400293987963</v>
       </c>
       <c r="F17">
-        <v>4.296940994558554</v>
+        <v>4.223296104168298</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0006359740552365212</v>
       </c>
       <c r="H17">
-        <v>3.301823527887066</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.243412014130215</v>
       </c>
       <c r="J17">
-        <v>13.55899748946996</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.47217318871867</v>
       </c>
       <c r="L17">
-        <v>7.414142433501127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>7.366106636501854</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01043996571291039</v>
+        <v>0.008867847439895105</v>
       </c>
       <c r="D18">
-        <v>0.07276958116857912</v>
+        <v>0.06740762688262691</v>
       </c>
       <c r="E18">
-        <v>0.1712835820575549</v>
+        <v>0.1709724752795445</v>
       </c>
       <c r="F18">
-        <v>4.121277159349177</v>
+        <v>4.051823115847895</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0006411449103845212</v>
       </c>
       <c r="H18">
-        <v>3.165609797657794</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.110515722884898</v>
       </c>
       <c r="J18">
-        <v>13.15304706670574</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>13.06963235098084</v>
       </c>
       <c r="L18">
-        <v>7.185750008779479</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>7.139756664888921</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01009054073628857</v>
+        <v>0.008548433893953877</v>
       </c>
       <c r="D19">
-        <v>0.07096203137927404</v>
+        <v>0.06570249581982779</v>
       </c>
       <c r="E19">
-        <v>0.1697965168108766</v>
+        <v>0.1694688909168107</v>
       </c>
       <c r="F19">
-        <v>4.063155469046279</v>
+        <v>3.995085792446048</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0006428833757917264</v>
       </c>
       <c r="H19">
-        <v>3.120554978430107</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.066556810203465</v>
       </c>
       <c r="J19">
-        <v>13.01695435581871</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.93466360553447</v>
       </c>
       <c r="L19">
-        <v>7.109275192254216</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>7.06395425022896</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01172963815719186</v>
+        <v>0.01005034590688902</v>
       </c>
       <c r="D20">
-        <v>0.0793847326326258</v>
+        <v>0.07365566701319892</v>
       </c>
       <c r="E20">
-        <v>0.1765247716511027</v>
+        <v>0.1762713483300899</v>
       </c>
       <c r="F20">
-        <v>4.330126147566375</v>
+        <v>4.255688092414914</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.000635010823098556</v>
       </c>
       <c r="H20">
-        <v>3.327563080438537</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.268523730779606</v>
       </c>
       <c r="J20">
-        <v>13.63480395249769</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.54733318618085</v>
       </c>
       <c r="L20">
-        <v>7.456838071604267</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>7.408414566334045</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.0186712881604838</v>
+        <v>0.01648129783407537</v>
       </c>
       <c r="D21">
-        <v>0.1138796900202621</v>
+        <v>0.1063714165544312</v>
       </c>
       <c r="E21">
-        <v>0.1998821131285382</v>
+        <v>0.1998754138677867</v>
       </c>
       <c r="F21">
-        <v>5.342431434415147</v>
+        <v>5.243371969248074</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0006074386782425678</v>
       </c>
       <c r="H21">
-        <v>4.11373226579434</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.035207355910188</v>
       </c>
       <c r="J21">
-        <v>15.82615199079618</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.71844804004189</v>
       </c>
       <c r="L21">
-        <v>8.697471150093889</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>8.636842978643671</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.02471714878383269</v>
+        <v>0.02213388499490199</v>
       </c>
       <c r="D22">
-        <v>0.1429191160921235</v>
+        <v>0.1340066491834193</v>
       </c>
       <c r="E22">
-        <v>0.2158853448880222</v>
+        <v>0.2160371772793823</v>
       </c>
       <c r="F22">
-        <v>6.123236707960558</v>
+        <v>6.004238866354456</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0005881668235202383</v>
       </c>
       <c r="H22">
-        <v>4.721295182450092</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.626995211437432</v>
       </c>
       <c r="J22">
-        <v>17.37739397282348</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>17.25310438789836</v>
       </c>
       <c r="L22">
-        <v>9.583540649471502</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>9.512813868918585</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.02131570712990927</v>
+        <v>0.01894978264663827</v>
       </c>
       <c r="D23">
-        <v>0.1266701192156532</v>
+        <v>0.1185373265958276</v>
       </c>
       <c r="E23">
-        <v>0.2072626006146621</v>
+        <v>0.2073301646473453</v>
       </c>
       <c r="F23">
-        <v>5.692860075492689</v>
+        <v>5.584984952644902</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0005986011265796121</v>
       </c>
       <c r="H23">
-        <v>4.386290862647641</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.300790680249861</v>
       </c>
       <c r="J23">
-        <v>16.53588020947063</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>16.42086265976769</v>
       </c>
       <c r="L23">
-        <v>9.102033510544658</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>9.036962111816081</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01163508365915078</v>
+        <v>0.009963472166214515</v>
       </c>
       <c r="D24">
-        <v>0.07890253767286026</v>
+        <v>0.0731998527889175</v>
       </c>
       <c r="E24">
-        <v>0.1761528287634739</v>
+        <v>0.175895339549605</v>
       </c>
       <c r="F24">
-        <v>4.315096809407123</v>
+        <v>4.241018039579529</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0006354465415425977</v>
       </c>
       <c r="H24">
-        <v>3.31590553297579</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.257150577455633</v>
       </c>
       <c r="J24">
-        <v>13.60050581788272</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.51332793062855</v>
       </c>
       <c r="L24">
-        <v>7.437518909838616</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>7.3892710723307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.005223661680689773</v>
+        <v>0.00416609483258501</v>
       </c>
       <c r="D25">
-        <v>0.04480698316218223</v>
+        <v>0.04117865125424203</v>
       </c>
       <c r="E25">
-        <v>0.1447444379479492</v>
+        <v>0.1441281003561166</v>
       </c>
       <c r="F25">
-        <v>3.154677346061391</v>
+        <v>3.108287931670219</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0006721527363282901</v>
       </c>
       <c r="H25">
-        <v>2.417320753914268</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.380489219785858</v>
       </c>
       <c r="J25">
-        <v>10.75964606859293</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>10.69478952928606</v>
       </c>
       <c r="L25">
-        <v>5.847467115182297</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>5.812517576143875</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_54/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.001741033036442019</v>
+        <v>0.1633581836179729</v>
       </c>
       <c r="D2">
-        <v>0.02564190011905154</v>
+        <v>0.02271102419858195</v>
       </c>
       <c r="E2">
-        <v>0.1218373618947162</v>
+        <v>0.12173344963281</v>
       </c>
       <c r="F2">
-        <v>2.428545578548565</v>
+        <v>2.338971347852976</v>
       </c>
       <c r="G2">
-        <v>0.0006981353085888175</v>
+        <v>0.0006987212651203086</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.856137020600315</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.770848456846835</v>
+        <v>8.764324800580283</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>4.74726478206891</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>4.743818775717685</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.865806449524243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0008159512703214133</v>
+        <v>0.1385493055303897</v>
       </c>
       <c r="D3">
-        <v>0.01826130494622547</v>
+        <v>0.0158664145249503</v>
       </c>
       <c r="E3">
-        <v>0.1071760892620581</v>
+        <v>0.107138419623876</v>
       </c>
       <c r="F3">
-        <v>2.029146383879009</v>
+        <v>1.9541826378465</v>
       </c>
       <c r="G3">
-        <v>0.0007155625018489449</v>
+        <v>0.0007157334949693653</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.548850538655316</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.524318847809525</v>
+        <v>7.522720440794672</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>4.061831615018122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>4.061005040652191</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.553140929227823</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0005063782795353688</v>
+        <v>0.1239421273127022</v>
       </c>
       <c r="D4">
-        <v>0.01486541036575062</v>
+        <v>0.01272655676315537</v>
       </c>
       <c r="E4">
-        <v>0.09833590821139637</v>
+        <v>0.09835586721539613</v>
       </c>
       <c r="F4">
-        <v>1.806151869653775</v>
+        <v>1.73909202641596</v>
       </c>
       <c r="G4">
-        <v>0.0007262817351654299</v>
+        <v>0.0007262009890735458</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.377617150588193</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>6.77861431842436</v>
+        <v>6.77928493223024</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>3.653603498542481</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>3.653944712625105</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.379650738294501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0004340281440899929</v>
+        <v>0.1181172522282452</v>
       </c>
       <c r="D5">
-        <v>0.0137183119399289</v>
+        <v>0.01166861396908914</v>
       </c>
       <c r="E5">
-        <v>0.09476722109673119</v>
+        <v>0.09481451040531397</v>
       </c>
       <c r="F5">
-        <v>1.719925387689656</v>
+        <v>1.655868252040065</v>
       </c>
       <c r="G5">
-        <v>0.0007306675590063187</v>
+        <v>0.0007304844566651376</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.31148103149701</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>6.478651848858703</v>
+        <v>6.480096663554576</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>3.489783210366383</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3.490512804972582</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.312818864761709</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0004249788752606065</v>
+        <v>0.1171569793575742</v>
       </c>
       <c r="D6">
-        <v>0.01354088686174393</v>
+        <v>0.01150515634023463</v>
       </c>
       <c r="E6">
-        <v>0.09417650172794723</v>
+        <v>0.09422855036628874</v>
       </c>
       <c r="F6">
-        <v>1.705863726800914</v>
+        <v>1.642293264137706</v>
       </c>
       <c r="G6">
-        <v>0.0007313972216008714</v>
+        <v>0.0007311971235566326</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.300700047809116</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>6.429053347642252</v>
+        <v>6.430618609570672</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>3.462717587679606</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3.463506962542439</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.301934841767689</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0005051978482750741</v>
+        <v>0.1238630894203112</v>
       </c>
       <c r="D7">
-        <v>0.01484903920502845</v>
+        <v>0.01271144575085614</v>
       </c>
       <c r="E7">
-        <v>0.09828765127224059</v>
+        <v>0.09830796380002838</v>
       </c>
       <c r="F7">
-        <v>1.804971303200716</v>
+        <v>1.737952780990327</v>
       </c>
       <c r="G7">
-        <v>0.0007263407971387213</v>
+        <v>0.0007262586702514375</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.376711348019697</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>6.774554280170292</v>
+        <v>6.775235898958158</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>3.651384655011825</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3.651731434582615</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.378734693369253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.001360923386729773</v>
+        <v>0.1546545842841738</v>
       </c>
       <c r="D8">
-        <v>0.02282861171363848</v>
+        <v>0.02009987566284366</v>
       </c>
       <c r="E8">
-        <v>0.1167439547795617</v>
+        <v>0.1166590938350147</v>
       </c>
       <c r="F8">
-        <v>2.285587124009325</v>
+        <v>2.201306193184749</v>
       </c>
       <c r="G8">
-        <v>0.0007041488588168172</v>
+        <v>0.0007045907350002851</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.746069843560903</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.336280472360613</v>
+        <v>8.331638815838772</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>4.507880874772553</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>4.505445507132762</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.753642002717115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.005758668970216263</v>
+        <v>0.2217189513324627</v>
       </c>
       <c r="D9">
-        <v>0.05039729204820276</v>
+        <v>0.04573072824474878</v>
       </c>
       <c r="E9">
-        <v>0.1546190181228724</v>
+        <v>0.1544849161966653</v>
       </c>
       <c r="F9">
-        <v>3.459979124461483</v>
+        <v>3.330234066162802</v>
       </c>
       <c r="G9">
-        <v>0.0006600292252922947</v>
+        <v>0.0006615570654699976</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.652334691902908</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.61452548276944</v>
+        <v>11.59093361105079</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>6.324901383102684</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>6.312013409806866</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.681229894893633</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01199441244194599</v>
+        <v>0.2783840228099592</v>
       </c>
       <c r="D10">
-        <v>0.0837414502148448</v>
+        <v>0.07674772799358465</v>
       </c>
       <c r="E10">
-        <v>0.1842127190806764</v>
+        <v>0.1841767992302437</v>
       </c>
       <c r="F10">
-        <v>4.573013550892568</v>
+        <v>4.395952287975803</v>
       </c>
       <c r="G10">
-        <v>0.0006257881418918418</v>
+        <v>0.0006282249701892298</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.514642280026777</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.26954541517856</v>
+        <v>14.2212583893207</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>7.81568440888438</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>7.788706018593416</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>3.569287652712646</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01599057787538749</v>
+        <v>0.3069513497340211</v>
       </c>
       <c r="D11">
-        <v>0.1039317970496612</v>
+        <v>0.09550386896700758</v>
       </c>
       <c r="E11">
-        <v>0.1983073329911349</v>
+        <v>0.1983565977919639</v>
       </c>
       <c r="F11">
-        <v>5.173441153091204</v>
+        <v>4.96895386754872</v>
       </c>
       <c r="G11">
-        <v>0.000609287931958894</v>
+        <v>0.0006121948753578831</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.980864890487396</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.57180508054262</v>
+        <v>15.50754202397846</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>8.553479909502727</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>8.51723248641494</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>4.05047858185084</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01774130244198258</v>
+        <v>0.3183280935401598</v>
       </c>
       <c r="D12">
-        <v>0.1126024159944308</v>
+        <v>0.103549586992834</v>
       </c>
       <c r="E12">
-        <v>0.2037664851375425</v>
+        <v>0.2038550342067893</v>
       </c>
       <c r="F12">
-        <v>5.419760692426109</v>
+        <v>5.20359102639182</v>
       </c>
       <c r="G12">
-        <v>0.0006028358041580143</v>
+        <v>0.0006059340418376771</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4.172314388987573</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.08397055119514</v>
+        <v>16.01259670996768</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>8.844888049392694</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>8.804485711018742</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>4.248165171964203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01735215465169482</v>
+        <v>0.3158497085316014</v>
       </c>
       <c r="D13">
-        <v>0.1106828900334733</v>
+        <v>0.101768928157064</v>
       </c>
       <c r="E13">
-        <v>0.202584710533678</v>
+        <v>0.2026644652655705</v>
       </c>
       <c r="F13">
-        <v>5.365752166176861</v>
+        <v>5.152166609700743</v>
       </c>
       <c r="G13">
-        <v>0.0006042359702050715</v>
+        <v>0.0006072922984692875</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.130327922099852</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.97270483979912</v>
+        <v>15.90291849931594</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>8.78152016429064</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>8.742046847634242</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>4.204808623155685</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0161293136998526</v>
+        <v>0.3078749466776003</v>
       </c>
       <c r="D14">
-        <v>0.1046222916369715</v>
+        <v>0.09614481654741525</v>
       </c>
       <c r="E14">
-        <v>0.1987537971130422</v>
+        <v>0.1988061454280867</v>
       </c>
       <c r="F14">
-        <v>5.193285410825951</v>
+        <v>4.987866624910595</v>
       </c>
       <c r="G14">
-        <v>0.0006087617296779567</v>
+        <v>0.0006116841030937556</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.996284780078526</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.6135193756561</v>
+        <v>15.54869566146175</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>8.577187595758545</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>8.540613183156864</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>4.066399646074217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01541393190416285</v>
+        <v>0.3030689011470571</v>
       </c>
       <c r="D15">
-        <v>0.101055104587239</v>
+        <v>0.09283321018966717</v>
       </c>
       <c r="E15">
-        <v>0.1964242452613902</v>
+        <v>0.1964607605885433</v>
       </c>
       <c r="F15">
-        <v>5.090318779970232</v>
+        <v>4.889715295722141</v>
       </c>
       <c r="G15">
-        <v>0.0006115046462734131</v>
+        <v>0.0006143469068361376</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.916282536575537</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.39619100314314</v>
+        <v>15.33425338131588</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>8.453723637033761</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>8.418831307857801</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>3.983800198534752</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01176187107490589</v>
+        <v>0.2765851536729542</v>
       </c>
       <c r="D16">
-        <v>0.08254566822427734</v>
+        <v>0.07563610726480618</v>
       </c>
       <c r="E16">
-        <v>0.1833067064453218</v>
+        <v>0.183266132698563</v>
       </c>
       <c r="F16">
-        <v>4.536075068869565</v>
+        <v>4.360655029967717</v>
       </c>
       <c r="G16">
-        <v>0.0006268425306678154</v>
+        <v>0.0006292501441043391</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.485982313141292</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.18675234876318</v>
+        <v>14.1393866749944</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>7.7689279202568</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>7.742480961636716</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>3.539723605440969</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.009858889035455398</v>
+        <v>0.2611448594008294</v>
       </c>
       <c r="D17">
-        <v>0.07265047933310598</v>
+        <v>0.06643470656861439</v>
       </c>
       <c r="E17">
-        <v>0.1754400293987963</v>
+        <v>0.1753633285541234</v>
       </c>
       <c r="F17">
-        <v>4.223296104168298</v>
+        <v>4.061570806494672</v>
       </c>
       <c r="G17">
-        <v>0.0006359740552365212</v>
+        <v>0.0006381322875432521</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.243412014130215</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.47217318871867</v>
+        <v>13.43232800699082</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>7.366106636501854</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>7.343982860771519</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>3.289606642878539</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.008867847439895105</v>
+        <v>0.2525142629522321</v>
       </c>
       <c r="D18">
-        <v>0.06740762688262691</v>
+        <v>0.06155783573342433</v>
       </c>
       <c r="E18">
-        <v>0.1709724752795445</v>
+        <v>0.170878723908757</v>
       </c>
       <c r="F18">
-        <v>4.051823115847895</v>
+        <v>3.897456046246475</v>
       </c>
       <c r="G18">
-        <v>0.0006411449103845212</v>
+        <v>0.0006431646098546908</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.110515722884898</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.06963235098084</v>
+        <v>13.03369772466419</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>7.139756664888921</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>7.119869708625373</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>3.15266921105939</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.008548433893953877</v>
+        <v>0.2496313207918774</v>
       </c>
       <c r="D19">
-        <v>0.06570249581982779</v>
+        <v>0.05997154331650023</v>
       </c>
       <c r="E19">
-        <v>0.1694688909168107</v>
+        <v>0.1693699739366643</v>
       </c>
       <c r="F19">
-        <v>3.995085792446048</v>
+        <v>3.843130716051689</v>
       </c>
       <c r="G19">
-        <v>0.0006428833757917264</v>
+        <v>0.0006448569027245332</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.066556810203465</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.93466360553447</v>
+        <v>12.89998988790762</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>7.06395425022896</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>7.04478673876568</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>3.107390439703238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01005034590688902</v>
+        <v>0.2627616785050435</v>
       </c>
       <c r="D20">
-        <v>0.07365566701319892</v>
+        <v>0.06736961234302186</v>
       </c>
       <c r="E20">
-        <v>0.1762713483300899</v>
+        <v>0.1761980993541066</v>
       </c>
       <c r="F20">
-        <v>4.255688092414914</v>
+        <v>4.092561067388004</v>
       </c>
       <c r="G20">
-        <v>0.000635010823098556</v>
+        <v>0.0006371950674043027</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.268523730779606</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.54733318618085</v>
+        <v>13.50673242873054</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>7.408414566334045</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>7.385857680911016</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>3.315489987304019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01648129783407537</v>
+        <v>0.3102005257800897</v>
       </c>
       <c r="D21">
-        <v>0.1063714165544312</v>
+        <v>0.0977682673648772</v>
       </c>
       <c r="E21">
-        <v>0.1998754138677867</v>
+        <v>0.1999356108312114</v>
       </c>
       <c r="F21">
-        <v>5.243371969248074</v>
+        <v>5.035594647713594</v>
       </c>
       <c r="G21">
-        <v>0.0006074386782425678</v>
+        <v>0.0006103999789662255</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.035207355910188</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.71844804004189</v>
+        <v>15.65219977461734</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>8.636842978643671</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>8.599437253228956</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>4.106588364075819</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.02213388499490199</v>
+        <v>0.3446009296094559</v>
       </c>
       <c r="D22">
-        <v>0.1340066491834193</v>
+        <v>0.1233827384919906</v>
       </c>
       <c r="E22">
-        <v>0.2160371772793823</v>
+        <v>0.2162262286775487</v>
       </c>
       <c r="F22">
-        <v>6.004238866354456</v>
+        <v>5.759242370325694</v>
       </c>
       <c r="G22">
-        <v>0.0005881668235202383</v>
+        <v>0.000591718918825154</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.626995211437432</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.25310438789836</v>
+        <v>17.16349925386118</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>9.512813868918585</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>9.461688740670837</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>4.71767905639571</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.01894978264663827</v>
+        <v>0.3258554080507423</v>
       </c>
       <c r="D23">
-        <v>0.1185373265958276</v>
+        <v>0.1090531421303922</v>
       </c>
       <c r="E23">
-        <v>0.2073301646473453</v>
+        <v>0.2074461901213667</v>
       </c>
       <c r="F23">
-        <v>5.584984952644902</v>
+        <v>5.360828791612789</v>
       </c>
       <c r="G23">
-        <v>0.0005986011265796121</v>
+        <v>0.000601827530487431</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4.300790680249861</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.42086265976769</v>
+        <v>16.34453190884994</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>9.036962111816081</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>8.993653899523196</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>4.380837587396044</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.009963472166214515</v>
+        <v>0.262029958361822</v>
       </c>
       <c r="D24">
-        <v>0.0731998527889175</v>
+        <v>0.06694567319807021</v>
       </c>
       <c r="E24">
-        <v>0.175895339549605</v>
+        <v>0.1758205184867663</v>
       </c>
       <c r="F24">
-        <v>4.241018039579529</v>
+        <v>4.078526310730808</v>
       </c>
       <c r="G24">
-        <v>0.0006354465415425977</v>
+        <v>0.0006376190111434881</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.257150577455633</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.51332793062855</v>
+        <v>13.4730700311024</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>7.3892710723307</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>7.366910755182317</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>3.303767062158997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.00416609483258501</v>
+        <v>0.2025786682016388</v>
       </c>
       <c r="D25">
-        <v>0.04117865125424203</v>
+        <v>0.03715373071218764</v>
       </c>
       <c r="E25">
-        <v>0.1441281003561166</v>
+        <v>0.1439869861714911</v>
       </c>
       <c r="F25">
-        <v>3.108287931670219</v>
+        <v>2.992625955622344</v>
       </c>
       <c r="G25">
-        <v>0.0006721527363282901</v>
+        <v>0.0006733746256379784</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.380489219785858</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.69478952928606</v>
+        <v>10.67767205303733</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>5.812517576143875</v>
+        <v>5.803253628648861</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2.402159395873909</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_54/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1633581836179729</v>
+        <v>0.08522308205263585</v>
       </c>
       <c r="D2">
-        <v>0.02271102419858195</v>
+        <v>0.05860923757893843</v>
       </c>
       <c r="E2">
-        <v>0.12173344963281</v>
+        <v>0.1162804595780891</v>
       </c>
       <c r="F2">
-        <v>2.338971347852976</v>
+        <v>2.241737459820513</v>
       </c>
       <c r="G2">
-        <v>0.0006987212651203086</v>
+        <v>0.0008082914244872634</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.947234021287656</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.764324800580283</v>
+        <v>5.130913624101765</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2086383130063751</v>
       </c>
       <c r="M2">
-        <v>4.743818775717685</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.865806449524243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1385493055303897</v>
+        <v>0.07509241110092546</v>
       </c>
       <c r="D3">
-        <v>0.0158664145249503</v>
+        <v>0.06204907170598517</v>
       </c>
       <c r="E3">
-        <v>0.107138419623876</v>
+        <v>0.1028762826498379</v>
       </c>
       <c r="F3">
-        <v>1.9541826378465</v>
+        <v>2.049488932920326</v>
       </c>
       <c r="G3">
-        <v>0.0007157334949693653</v>
+        <v>0.0008184217839786773</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.789092409331118</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.522720440794672</v>
+        <v>4.4376806918944</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1848989814690682</v>
       </c>
       <c r="M3">
-        <v>4.061005040652191</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.553140929227823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1239421273127022</v>
+        <v>0.06896330520267213</v>
       </c>
       <c r="D4">
-        <v>0.01272655676315537</v>
+        <v>0.06432748014176326</v>
       </c>
       <c r="E4">
-        <v>0.09835586721539613</v>
+        <v>0.09486213754539818</v>
       </c>
       <c r="F4">
-        <v>1.73909202641596</v>
+        <v>1.937900123697275</v>
       </c>
       <c r="G4">
-        <v>0.0007262009890735458</v>
+        <v>0.0008247820280857798</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.697532034056479</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>6.77928493223024</v>
+        <v>4.019139720851854</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1707852392967055</v>
       </c>
       <c r="M4">
-        <v>3.653944712625105</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.379650738294501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1181172522282452</v>
+        <v>0.06648561188843161</v>
       </c>
       <c r="D5">
-        <v>0.01166861396908914</v>
+        <v>0.06529491350728023</v>
       </c>
       <c r="E5">
-        <v>0.09481451040531397</v>
+        <v>0.09164420152636765</v>
       </c>
       <c r="F5">
-        <v>1.655868252040065</v>
+        <v>1.893883563014214</v>
       </c>
       <c r="G5">
-        <v>0.0007304844566651376</v>
+        <v>0.000827411673377663</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.661473246560092</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>6.480096663554576</v>
+        <v>3.850101899200695</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1651364169279717</v>
       </c>
       <c r="M5">
-        <v>3.490512804972582</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.312818864761709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1171569793575742</v>
+        <v>0.06607531801526534</v>
       </c>
       <c r="D6">
-        <v>0.01150515634023463</v>
+        <v>0.06545783066938782</v>
       </c>
       <c r="E6">
-        <v>0.09422855036628874</v>
+        <v>0.09111258197728844</v>
       </c>
       <c r="F6">
-        <v>1.642293264137706</v>
+        <v>1.886658085870735</v>
       </c>
       <c r="G6">
-        <v>0.0007311971235566326</v>
+        <v>0.0008278506766858245</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.655557537727987</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>6.430618609570672</v>
+        <v>3.822117888872128</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1642042609298358</v>
       </c>
       <c r="M6">
-        <v>3.463506962542439</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.301934841767689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1238630894203112</v>
+        <v>0.06892981300742917</v>
       </c>
       <c r="D7">
-        <v>0.01271144575085614</v>
+        <v>0.06434037307698759</v>
       </c>
       <c r="E7">
-        <v>0.09830796380002838</v>
+        <v>0.09481855347006274</v>
       </c>
       <c r="F7">
-        <v>1.737952780990327</v>
+        <v>1.937300810047049</v>
       </c>
       <c r="G7">
-        <v>0.0007262586702514375</v>
+        <v>0.0008248173362240112</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.697040835400628</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>6.775235898958158</v>
+        <v>4.01685419140199</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1707086587251254</v>
       </c>
       <c r="M7">
-        <v>3.651731434582615</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.378734693369253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1546545842841738</v>
+        <v>0.08170922376780254</v>
       </c>
       <c r="D8">
-        <v>0.02009987566284366</v>
+        <v>0.0597589417179698</v>
       </c>
       <c r="E8">
-        <v>0.1166590938350147</v>
+        <v>0.1116097670298579</v>
       </c>
       <c r="F8">
-        <v>2.201306193184749</v>
+        <v>2.174005927663785</v>
       </c>
       <c r="G8">
-        <v>0.0007045907350002851</v>
+        <v>0.000811756894201654</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.891468377554261</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.331638815838772</v>
+        <v>4.890242870752502</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2003484082672031</v>
       </c>
       <c r="M8">
-        <v>4.505445507132762</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.753642002717115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2217189513324627</v>
+        <v>0.1076454179787163</v>
       </c>
       <c r="D9">
-        <v>0.04573072824474878</v>
+        <v>0.05224304488546494</v>
       </c>
       <c r="E9">
-        <v>0.1544849161966653</v>
+        <v>0.1465814595709567</v>
       </c>
       <c r="F9">
-        <v>3.330234066162802</v>
+        <v>2.697831713049794</v>
       </c>
       <c r="G9">
-        <v>0.0006615570654699976</v>
+        <v>0.0007871279501841644</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.323834793703867</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.59093361105079</v>
+        <v>6.673010804770684</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2628362605086778</v>
       </c>
       <c r="M9">
-        <v>6.312013409806866</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.681229894893633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2783840228099592</v>
+        <v>0.1274810086898697</v>
       </c>
       <c r="D10">
-        <v>0.07674772799358465</v>
+        <v>0.04786004636591557</v>
       </c>
       <c r="E10">
-        <v>0.1841767992302437</v>
+        <v>0.1740522896395476</v>
       </c>
       <c r="F10">
-        <v>4.395952287975803</v>
+        <v>3.132615638541665</v>
       </c>
       <c r="G10">
-        <v>0.0006282249701892298</v>
+        <v>0.0007694248082666943</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.684118945546743</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.2212583893207</v>
+        <v>8.047583541044901</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3125280167576108</v>
       </c>
       <c r="M10">
-        <v>7.788706018593416</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.569287652712646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3069513497340211</v>
+        <v>0.1367403205326383</v>
       </c>
       <c r="D11">
-        <v>0.09550386896700758</v>
+        <v>0.04618135577570115</v>
       </c>
       <c r="E11">
-        <v>0.1983565977919639</v>
+        <v>0.1870782103658755</v>
       </c>
       <c r="F11">
-        <v>4.96895386754872</v>
+        <v>3.344900958332261</v>
       </c>
       <c r="G11">
-        <v>0.0006121948753578831</v>
+        <v>0.000761400931756292</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.86036653095708</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.50754202397846</v>
+        <v>8.692924528963999</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3362574812486514</v>
       </c>
       <c r="M11">
-        <v>8.51723248641494</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.05047858185084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3183280935401598</v>
+        <v>0.1402871015585703</v>
       </c>
       <c r="D12">
-        <v>0.103549586992834</v>
+        <v>0.04559805815850737</v>
       </c>
       <c r="E12">
-        <v>0.2038550342067893</v>
+        <v>0.1921012120878771</v>
       </c>
       <c r="F12">
-        <v>5.20359102639182</v>
+        <v>3.427739631887306</v>
       </c>
       <c r="G12">
-        <v>0.0006059340418376771</v>
+        <v>0.0007583612121477603</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.929193840719677</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.01259670996768</v>
+        <v>8.940776201562585</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3454352625757906</v>
       </c>
       <c r="M12">
-        <v>8.804485711018742</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.248165171964203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3158497085316014</v>
+        <v>0.1395213225275711</v>
       </c>
       <c r="D13">
-        <v>0.101768928157064</v>
+        <v>0.04572122444203686</v>
       </c>
       <c r="E13">
-        <v>0.2026644652655705</v>
+        <v>0.191015146532429</v>
       </c>
       <c r="F13">
-        <v>5.152166609700743</v>
+        <v>3.409783341261175</v>
       </c>
       <c r="G13">
-        <v>0.0006072922984692875</v>
+        <v>0.0007590160228910988</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.914272356772329</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.90291849931594</v>
+        <v>8.887231817907491</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.3434495884073669</v>
       </c>
       <c r="M13">
-        <v>8.742046847634242</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.204808623155685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3078749466776003</v>
+        <v>0.1370312637015445</v>
       </c>
       <c r="D14">
-        <v>0.09614481654741525</v>
+        <v>0.04613227224046668</v>
       </c>
       <c r="E14">
-        <v>0.1988061454280867</v>
+        <v>0.1874895543394786</v>
       </c>
       <c r="F14">
-        <v>4.987866624910595</v>
+        <v>3.351664709527057</v>
       </c>
       <c r="G14">
-        <v>0.0006116841030937556</v>
+        <v>0.0007611509118486032</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.865985220465362</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.54869566146175</v>
+        <v>8.713242031346113</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.3370085040926512</v>
       </c>
       <c r="M14">
-        <v>8.540613183156864</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.066399646074217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3030689011470571</v>
+        <v>0.1355115151235964</v>
       </c>
       <c r="D15">
-        <v>0.09283321018966717</v>
+        <v>0.04639110616230724</v>
       </c>
       <c r="E15">
-        <v>0.1964607605885433</v>
+        <v>0.1853422600193255</v>
       </c>
       <c r="F15">
-        <v>4.889715295722141</v>
+        <v>3.31639645416098</v>
       </c>
       <c r="G15">
-        <v>0.0006143469068361376</v>
+        <v>0.0007624582521434942</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.83668973431233</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.33425338131588</v>
+        <v>8.60714013673595</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.3330891371831939</v>
       </c>
       <c r="M15">
-        <v>8.418831307857801</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.983800198534752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2765851536729542</v>
+        <v>0.126881175408613</v>
       </c>
       <c r="D16">
-        <v>0.07563610726480618</v>
+        <v>0.04797666848118709</v>
       </c>
       <c r="E16">
-        <v>0.183266132698563</v>
+        <v>0.1732128314753396</v>
       </c>
       <c r="F16">
-        <v>4.360655029967717</v>
+        <v>3.119063964610348</v>
       </c>
       <c r="G16">
-        <v>0.0006292501441043391</v>
+        <v>0.0007699493305332039</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.672874641320504</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.1393866749944</v>
+        <v>8.005860750836064</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.3110023394477253</v>
       </c>
       <c r="M16">
-        <v>7.742480961636716</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.539723605440969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2611448594008294</v>
+        <v>0.1216515207186291</v>
       </c>
       <c r="D17">
-        <v>0.06643470656861439</v>
+        <v>0.04903470053159253</v>
       </c>
       <c r="E17">
-        <v>0.1753633285541234</v>
+        <v>0.1659168114094669</v>
       </c>
       <c r="F17">
-        <v>4.061570806494672</v>
+        <v>3.001962362069406</v>
       </c>
       <c r="G17">
-        <v>0.0006381322875432521</v>
+        <v>0.0007745487627541779</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.575747906512703</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.43232800699082</v>
+        <v>7.642520303771335</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2977607869419785</v>
       </c>
       <c r="M17">
-        <v>7.343982860771519</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.289606642878539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2525142629522321</v>
+        <v>0.1186653267964601</v>
       </c>
       <c r="D18">
-        <v>0.06155783573342433</v>
+        <v>0.04967242316663345</v>
       </c>
       <c r="E18">
-        <v>0.170878723908757</v>
+        <v>0.1617691749364951</v>
       </c>
       <c r="F18">
-        <v>3.897456046246475</v>
+        <v>2.935948285566042</v>
       </c>
       <c r="G18">
-        <v>0.0006431646098546908</v>
+        <v>0.0007771973745254753</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.521024551168708</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.03369772466419</v>
+        <v>7.435382065623685</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2902483528937694</v>
       </c>
       <c r="M18">
-        <v>7.119869708625373</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.15266921105939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2496313207918774</v>
+        <v>0.1176578084193096</v>
       </c>
       <c r="D19">
-        <v>0.05997154331650023</v>
+        <v>0.04989316101740471</v>
       </c>
       <c r="E19">
-        <v>0.1693699739366643</v>
+        <v>0.1603728480548696</v>
       </c>
       <c r="F19">
-        <v>3.843130716051689</v>
+        <v>2.913816962843384</v>
       </c>
       <c r="G19">
-        <v>0.0006448569027245332</v>
+        <v>0.0007780948409120658</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.502683572733616</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.89998988790762</v>
+        <v>7.365549086205988</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2877217503583438</v>
       </c>
       <c r="M19">
-        <v>7.04478673876568</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.107390439703238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2627616785050435</v>
+        <v>0.1222059297127487</v>
       </c>
       <c r="D20">
-        <v>0.06736961234302186</v>
+        <v>0.04891900519809056</v>
       </c>
       <c r="E20">
-        <v>0.1761980993541066</v>
+        <v>0.1666883344862526</v>
       </c>
       <c r="F20">
-        <v>4.092561067388004</v>
+        <v>3.01428691949036</v>
       </c>
       <c r="G20">
-        <v>0.0006371950674043027</v>
+        <v>0.000774058857295969</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.585967003740322</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.50673242873054</v>
+        <v>7.681003518529394</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2991594311616694</v>
       </c>
       <c r="M20">
-        <v>7.385857680911016</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.315489987304019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3102005257800897</v>
+        <v>0.137761498164096</v>
       </c>
       <c r="D21">
-        <v>0.0977682673648772</v>
+        <v>0.0460100526197742</v>
       </c>
       <c r="E21">
-        <v>0.1999356108312114</v>
+        <v>0.1885225280119514</v>
       </c>
       <c r="F21">
-        <v>5.035594647713594</v>
+        <v>3.368665819734275</v>
       </c>
       <c r="G21">
-        <v>0.0006103999789662255</v>
+        <v>0.0007605239254381234</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.880108970609555</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.65219977461734</v>
+        <v>8.764247506543995</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3388949303217004</v>
       </c>
       <c r="M21">
-        <v>8.599437253228956</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.106588364075819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3446009296094559</v>
+        <v>0.148167776317834</v>
       </c>
       <c r="D22">
-        <v>0.1233827384919906</v>
+        <v>0.04441856990686333</v>
       </c>
       <c r="E22">
-        <v>0.2162262286775487</v>
+        <v>0.2033276367910091</v>
       </c>
       <c r="F22">
-        <v>5.759242370325694</v>
+        <v>3.614775817611161</v>
       </c>
       <c r="G22">
-        <v>0.000591718918825154</v>
+        <v>0.0007516675275051774</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.084692064889481</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.16349925386118</v>
+        <v>9.492817956896829</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3660012097732732</v>
       </c>
       <c r="M22">
-        <v>9.461688740670837</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.71767905639571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3258554080507423</v>
+        <v>0.1425893501162534</v>
       </c>
       <c r="D23">
-        <v>0.1090531421303922</v>
+        <v>0.04523692624835363</v>
       </c>
       <c r="E23">
-        <v>0.2074461901213667</v>
+        <v>0.1953715317900446</v>
       </c>
       <c r="F23">
-        <v>5.360828791612789</v>
+        <v>3.481957384200143</v>
       </c>
       <c r="G23">
-        <v>0.000601827530487431</v>
+        <v>0.000756397376337404</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.97425584086055</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.34453190884994</v>
+        <v>9.101857029905091</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3514186472259695</v>
       </c>
       <c r="M23">
-        <v>8.993653899523196</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.380837587396044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.262029958361822</v>
+        <v>0.1219552183301289</v>
       </c>
       <c r="D24">
-        <v>0.06694567319807021</v>
+        <v>0.04897121985772657</v>
       </c>
       <c r="E24">
-        <v>0.1758205184867663</v>
+        <v>0.1663393837299623</v>
       </c>
       <c r="F24">
-        <v>4.078526310730808</v>
+        <v>3.008710936034305</v>
       </c>
       <c r="G24">
-        <v>0.0006376190111434881</v>
+        <v>0.0007742803297191559</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.581343496193</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.4730700311024</v>
+        <v>7.663599846508248</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2985267938763485</v>
       </c>
       <c r="M24">
-        <v>7.366910755182317</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.303767062158997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2025786682016388</v>
+        <v>0.1005118593184591</v>
       </c>
       <c r="D25">
-        <v>0.03715373071218764</v>
+        <v>0.05409632072638004</v>
       </c>
       <c r="E25">
-        <v>0.1439869861714911</v>
+        <v>0.1368514984307403</v>
       </c>
       <c r="F25">
-        <v>2.992625955622344</v>
+        <v>2.548450537268309</v>
       </c>
       <c r="G25">
-        <v>0.0006733746256379784</v>
+        <v>0.000793705266647591</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.200310109057028</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.67767205303733</v>
+        <v>6.18113418449127</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2453581415203416</v>
       </c>
       <c r="M25">
-        <v>5.803253628648861</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.402159395873909</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_54/res_line/pl_mw.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.08522308205263585</v>
+        <v>0.09938814878539404</v>
       </c>
       <c r="D2">
-        <v>0.05860923757893843</v>
+        <v>0.1384643024135066</v>
       </c>
       <c r="E2">
-        <v>0.1162804595780891</v>
+        <v>0.1155545705233969</v>
       </c>
       <c r="F2">
-        <v>2.241737459820513</v>
+        <v>2.542000168866508</v>
       </c>
       <c r="G2">
-        <v>0.0008082914244872634</v>
+        <v>0.002561627388379081</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.947234021287656</v>
+        <v>2.367744596680183</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5.130913624101765</v>
+        <v>2.750437281852953</v>
       </c>
       <c r="L2">
-        <v>0.2086383130063751</v>
+        <v>0.1946243542569732</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.07509241110092546</v>
+        <v>0.09722501049695609</v>
       </c>
       <c r="D3">
-        <v>0.06204907170598517</v>
+        <v>0.1401662198227491</v>
       </c>
       <c r="E3">
-        <v>0.1028762826498379</v>
+        <v>0.1129609120015225</v>
       </c>
       <c r="F3">
-        <v>2.049488932920326</v>
+        <v>2.516803423652647</v>
       </c>
       <c r="G3">
-        <v>0.0008184217839786773</v>
+        <v>0.002567701942429623</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.789092409331118</v>
+        <v>2.349219118362356</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4.4376806918944</v>
+        <v>2.579298125689718</v>
       </c>
       <c r="L3">
-        <v>0.1848989814690682</v>
+        <v>0.1901722168959665</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.06896330520267213</v>
+        <v>0.09593890276620698</v>
       </c>
       <c r="D4">
-        <v>0.06432748014176326</v>
+        <v>0.1412723616166431</v>
       </c>
       <c r="E4">
-        <v>0.09486213754539818</v>
+        <v>0.1114343895490926</v>
       </c>
       <c r="F4">
-        <v>1.937900123697275</v>
+        <v>2.503081329172005</v>
       </c>
       <c r="G4">
-        <v>0.0008247820280857798</v>
+        <v>0.002571623484156849</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.697532034056479</v>
+        <v>2.339411142944215</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4.019139720851854</v>
+        <v>2.475668663549243</v>
       </c>
       <c r="L4">
-        <v>0.1707852392967055</v>
+        <v>0.1875624879319773</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.06648561188843161</v>
+        <v>0.09542541908578528</v>
       </c>
       <c r="D5">
-        <v>0.06529491350728023</v>
+        <v>0.1417384400757804</v>
       </c>
       <c r="E5">
-        <v>0.09164420152636765</v>
+        <v>0.110828854844069</v>
       </c>
       <c r="F5">
-        <v>1.893883563014214</v>
+        <v>2.497926094726637</v>
       </c>
       <c r="G5">
-        <v>0.000827411673377663</v>
+        <v>0.002573269936149855</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.661473246560092</v>
+        <v>2.335805700921526</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>3.850101899200695</v>
+        <v>2.433801994056921</v>
       </c>
       <c r="L5">
-        <v>0.1651364169279717</v>
+        <v>0.186529969231195</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.06607531801526534</v>
+        <v>0.09534079780871707</v>
       </c>
       <c r="D6">
-        <v>0.06545783066938782</v>
+        <v>0.1418167553378602</v>
       </c>
       <c r="E6">
-        <v>0.09111258197728844</v>
+        <v>0.1107293032863552</v>
       </c>
       <c r="F6">
-        <v>1.886658085870735</v>
+        <v>2.497096352436643</v>
       </c>
       <c r="G6">
-        <v>0.0008278506766858245</v>
+        <v>0.00257354625610795</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.655557537727987</v>
+        <v>2.335230583653185</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3.822117888872128</v>
+        <v>2.426871955757804</v>
       </c>
       <c r="L6">
-        <v>0.1642042609298358</v>
+        <v>0.1863603851596096</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.06892981300742917</v>
+        <v>0.09593193471174288</v>
       </c>
       <c r="D7">
-        <v>0.06434037307698759</v>
+        <v>0.1412785853783447</v>
       </c>
       <c r="E7">
-        <v>0.09481855347006274</v>
+        <v>0.1114261562207588</v>
       </c>
       <c r="F7">
-        <v>1.937300810047049</v>
+        <v>2.503010040077271</v>
       </c>
       <c r="G7">
-        <v>0.0008248173362240112</v>
+        <v>0.00257164549231672</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.697040835400628</v>
+        <v>2.33936093736871</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4.01685419140199</v>
+        <v>2.475102566549481</v>
       </c>
       <c r="L7">
-        <v>0.1707086587251254</v>
+        <v>0.1875484378860222</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.08170922376780254</v>
+        <v>0.09863358842538616</v>
       </c>
       <c r="D8">
-        <v>0.0597589417179698</v>
+        <v>0.1390383930877412</v>
       </c>
       <c r="E8">
-        <v>0.1116097670298579</v>
+        <v>0.1146465426382868</v>
       </c>
       <c r="F8">
-        <v>2.174005927663785</v>
+        <v>2.532947468106542</v>
       </c>
       <c r="G8">
-        <v>0.000811756894201654</v>
+        <v>0.002563682205826404</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.891468377554261</v>
+        <v>2.361030263834792</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>4.890242870752502</v>
+        <v>2.691126359242332</v>
       </c>
       <c r="L8">
-        <v>0.2003484082672031</v>
+        <v>0.193063425137538</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1076454179787163</v>
+        <v>0.1042641407325817</v>
       </c>
       <c r="D9">
-        <v>0.05224304488546494</v>
+        <v>0.1351333662681675</v>
       </c>
       <c r="E9">
-        <v>0.1465814595709567</v>
+        <v>0.1214885707981708</v>
       </c>
       <c r="F9">
-        <v>2.697831713049794</v>
+        <v>2.605677939921861</v>
       </c>
       <c r="G9">
-        <v>0.0007871279501841644</v>
+        <v>0.002549579492072017</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.323834793703867</v>
+        <v>2.41607705891947</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>6.673010804770684</v>
+        <v>3.126360612563076</v>
       </c>
       <c r="L9">
-        <v>0.2628362605086778</v>
+        <v>0.2048708262859265</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1274810086898697</v>
+        <v>0.1086027980894784</v>
       </c>
       <c r="D10">
-        <v>0.04786004636591557</v>
+        <v>0.1325655115336843</v>
       </c>
       <c r="E10">
-        <v>0.1740522896395476</v>
+        <v>0.1268418636868063</v>
       </c>
       <c r="F10">
-        <v>3.132615638541665</v>
+        <v>2.667875240460262</v>
       </c>
       <c r="G10">
-        <v>0.0007694248082666943</v>
+        <v>0.002540129362651458</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.684118945546743</v>
+        <v>2.464349452734439</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.047583541044901</v>
+        <v>3.45338991373211</v>
       </c>
       <c r="L10">
-        <v>0.3125280167576108</v>
+        <v>0.2141651573040377</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1367403205326383</v>
+        <v>0.110620296121823</v>
       </c>
       <c r="D11">
-        <v>0.04618135577570115</v>
+        <v>0.1314635281394771</v>
       </c>
       <c r="E11">
-        <v>0.1870782103658755</v>
+        <v>0.1293493226709401</v>
       </c>
       <c r="F11">
-        <v>3.344900958332261</v>
+        <v>2.698120026806919</v>
       </c>
       <c r="G11">
-        <v>0.000761400931756292</v>
+        <v>0.002536025656196583</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.86036653095708</v>
+        <v>2.488048886502128</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>8.692924528963999</v>
+        <v>3.603784991809846</v>
       </c>
       <c r="L11">
-        <v>0.3362574812486514</v>
+        <v>0.2185311290787837</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1402871015585703</v>
+        <v>0.1113905535190582</v>
       </c>
       <c r="D12">
-        <v>0.04559805815850737</v>
+        <v>0.1310558185355042</v>
       </c>
       <c r="E12">
-        <v>0.1921012120878771</v>
+        <v>0.1303093057392815</v>
       </c>
       <c r="F12">
-        <v>3.427739631887306</v>
+        <v>2.709857181509392</v>
       </c>
       <c r="G12">
-        <v>0.0007583612121477603</v>
+        <v>0.002534499571942409</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.929193840719677</v>
+        <v>2.497276540349532</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>8.940776201562585</v>
+        <v>3.660972732154335</v>
       </c>
       <c r="L12">
-        <v>0.3454352625757906</v>
+        <v>0.2202044892143391</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1395213225275711</v>
+        <v>0.1112243861415578</v>
       </c>
       <c r="D13">
-        <v>0.04572122444203686</v>
+        <v>0.131143198464386</v>
       </c>
       <c r="E13">
-        <v>0.191015146532429</v>
+        <v>0.1301020896093306</v>
       </c>
       <c r="F13">
-        <v>3.409783341261175</v>
+        <v>2.707316682051186</v>
       </c>
       <c r="G13">
-        <v>0.0007590160228910988</v>
+        <v>0.002534827003495302</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.914272356772329</v>
+        <v>2.495277891477613</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>8.887231817907491</v>
+        <v>3.648645777468403</v>
       </c>
       <c r="L13">
-        <v>0.3434495884073669</v>
+        <v>0.2198432052758506</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1370312637015445</v>
+        <v>0.1106835400526762</v>
       </c>
       <c r="D14">
-        <v>0.04613227224046668</v>
+        <v>0.1314297930376078</v>
       </c>
       <c r="E14">
-        <v>0.1874895543394786</v>
+        <v>0.129428090911567</v>
       </c>
       <c r="F14">
-        <v>3.351664709527057</v>
+        <v>2.699079934997059</v>
       </c>
       <c r="G14">
-        <v>0.0007611509118486032</v>
+        <v>0.002535899546263632</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.865985220465362</v>
+        <v>2.488802959636331</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>8.713242031346113</v>
+        <v>3.608485110364484</v>
       </c>
       <c r="L14">
-        <v>0.3370085040926512</v>
+        <v>0.2186683940491321</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1355115151235964</v>
+        <v>0.1103530725993664</v>
       </c>
       <c r="D15">
-        <v>0.04639110616230724</v>
+        <v>0.131606591346074</v>
       </c>
       <c r="E15">
-        <v>0.1853422600193255</v>
+        <v>0.1290166121613581</v>
       </c>
       <c r="F15">
-        <v>3.31639645416098</v>
+        <v>2.694071795820662</v>
       </c>
       <c r="G15">
-        <v>0.0007624582521434942</v>
+        <v>0.002536560138021587</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.83668973431233</v>
+        <v>2.484869938862786</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.60714013673595</v>
+        <v>3.583916397629139</v>
       </c>
       <c r="L15">
-        <v>0.3330891371831939</v>
+        <v>0.2179514076423601</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.126881175408613</v>
+        <v>0.1084718293042499</v>
       </c>
       <c r="D16">
-        <v>0.04797666848118709</v>
+        <v>0.1326388662309839</v>
       </c>
       <c r="E16">
-        <v>0.1732128314753396</v>
+        <v>0.1266794551660269</v>
       </c>
       <c r="F16">
-        <v>3.119063964610348</v>
+        <v>2.6659382343625</v>
       </c>
       <c r="G16">
-        <v>0.0007699493305332039</v>
+        <v>0.002540401462912376</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.672874641320504</v>
+        <v>2.462835907043853</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.005860750836064</v>
+        <v>3.443594192075579</v>
       </c>
       <c r="L16">
-        <v>0.3110023394477253</v>
+        <v>0.2138826256330049</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1216515207186291</v>
+        <v>0.1073289513770845</v>
       </c>
       <c r="D17">
-        <v>0.04903470053159253</v>
+        <v>0.1332891287263926</v>
       </c>
       <c r="E17">
-        <v>0.1659168114094669</v>
+        <v>0.125264236608416</v>
       </c>
       <c r="F17">
-        <v>3.001962362069406</v>
+        <v>2.649181411252187</v>
       </c>
       <c r="G17">
-        <v>0.0007745487627541779</v>
+        <v>0.002542807867170414</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.575747906512703</v>
+        <v>2.44976652138547</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>7.642520303771335</v>
+        <v>3.357929589799483</v>
       </c>
       <c r="L17">
-        <v>0.2977607869419785</v>
+        <v>0.2114220476512543</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1186653267964601</v>
+        <v>0.1066757243243899</v>
       </c>
       <c r="D18">
-        <v>0.04967242316663345</v>
+        <v>0.133669363946666</v>
       </c>
       <c r="E18">
-        <v>0.1617691749364951</v>
+        <v>0.1244570331304686</v>
       </c>
       <c r="F18">
-        <v>2.935948285566042</v>
+        <v>2.639726744024131</v>
       </c>
       <c r="G18">
-        <v>0.0007771973745254753</v>
+        <v>0.00254421035098068</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.521024551168708</v>
+        <v>2.442412961252629</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>7.435382065623685</v>
+        <v>3.308810647408166</v>
       </c>
       <c r="L18">
-        <v>0.2902483528937694</v>
+        <v>0.2100197574426659</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1176578084193096</v>
+        <v>0.1064552623813313</v>
       </c>
       <c r="D19">
-        <v>0.04989316101740471</v>
+        <v>0.1337991713055473</v>
       </c>
       <c r="E19">
-        <v>0.1603728480548696</v>
+        <v>0.1241848922475555</v>
       </c>
       <c r="F19">
-        <v>2.913816962843384</v>
+        <v>2.63655694956708</v>
       </c>
       <c r="G19">
-        <v>0.0007780948409120658</v>
+        <v>0.002544688370285899</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.502683572733616</v>
+        <v>2.439951181442723</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>7.365549086205988</v>
+        <v>3.292206039219138</v>
       </c>
       <c r="L19">
-        <v>0.2877217503583438</v>
+        <v>0.2095471867097984</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1222059297127487</v>
+        <v>0.1074501858487906</v>
       </c>
       <c r="D20">
-        <v>0.04891900519809056</v>
+        <v>0.1332192627341087</v>
       </c>
       <c r="E20">
-        <v>0.1666883344862526</v>
+        <v>0.1254141854555115</v>
       </c>
       <c r="F20">
-        <v>3.01428691949036</v>
+        <v>2.650946195275054</v>
       </c>
       <c r="G20">
-        <v>0.000774058857295969</v>
+        <v>0.002542549799807343</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.585967003740322</v>
+        <v>2.451140825915843</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>7.681003518529394</v>
+        <v>3.367032874332949</v>
       </c>
       <c r="L20">
-        <v>0.2991594311616694</v>
+        <v>0.2116826364919291</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.137761498164096</v>
+        <v>0.1108422295682345</v>
       </c>
       <c r="D21">
-        <v>0.0460100526197742</v>
+        <v>0.1313453524490882</v>
       </c>
       <c r="E21">
-        <v>0.1885225280119514</v>
+        <v>0.1296257760780719</v>
       </c>
       <c r="F21">
-        <v>3.368665819734275</v>
+        <v>2.701491527932802</v>
       </c>
       <c r="G21">
-        <v>0.0007605239254381234</v>
+        <v>0.002535583758658033</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.880108970609555</v>
+        <v>2.490697908639376</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>8.764247506543995</v>
+        <v>3.620274837246029</v>
       </c>
       <c r="L21">
-        <v>0.3388949303217004</v>
+        <v>0.21901291829532</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.148167776317834</v>
+        <v>0.1130956890220745</v>
       </c>
       <c r="D22">
-        <v>0.04441856990686333</v>
+        <v>0.1301765635855929</v>
       </c>
       <c r="E22">
-        <v>0.2033276367910091</v>
+        <v>0.1324393170019249</v>
       </c>
       <c r="F22">
-        <v>3.614775817611161</v>
+        <v>2.736183524525387</v>
       </c>
       <c r="G22">
-        <v>0.0007516675275051774</v>
+        <v>0.002531193593893942</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3.084692064889481</v>
+        <v>2.518027953843458</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.492817956896829</v>
+        <v>3.78716211386444</v>
       </c>
       <c r="L22">
-        <v>0.3660012097732732</v>
+        <v>0.2239207228196562</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1425893501162534</v>
+        <v>0.1118896380619674</v>
       </c>
       <c r="D23">
-        <v>0.04523692624835363</v>
+        <v>0.1307952261796039</v>
       </c>
       <c r="E23">
-        <v>0.1953715317900446</v>
+        <v>0.1309320672825578</v>
       </c>
       <c r="F23">
-        <v>3.481957384200143</v>
+        <v>2.717514883016349</v>
       </c>
       <c r="G23">
-        <v>0.000756397376337404</v>
+        <v>0.002533521890639674</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.97425584086055</v>
+        <v>2.503305238915203</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.101857029905091</v>
+        <v>3.697964257078581</v>
       </c>
       <c r="L23">
-        <v>0.3514186472259695</v>
+        <v>0.2212905497532773</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1219552183301289</v>
+        <v>0.107395363815499</v>
       </c>
       <c r="D24">
-        <v>0.04897121985772657</v>
+        <v>0.1332508292494623</v>
       </c>
       <c r="E24">
-        <v>0.1663393837299623</v>
+        <v>0.1253463735765052</v>
       </c>
       <c r="F24">
-        <v>3.008710936034305</v>
+        <v>2.650147778975906</v>
       </c>
       <c r="G24">
-        <v>0.0007742803297191559</v>
+        <v>0.002542666412898896</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.581343496193</v>
+        <v>2.450519004062969</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>7.663599846508248</v>
+        <v>3.362916872221717</v>
       </c>
       <c r="L24">
-        <v>0.2985267938763485</v>
+        <v>0.2115647858924206</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1005118593184591</v>
+        <v>0.1027054173542155</v>
       </c>
       <c r="D25">
-        <v>0.05409632072638004</v>
+        <v>0.1361371608478592</v>
       </c>
       <c r="E25">
-        <v>0.1368514984307403</v>
+        <v>0.1195806813906373</v>
       </c>
       <c r="F25">
-        <v>2.548450537268309</v>
+        <v>2.584479215333943</v>
       </c>
       <c r="G25">
-        <v>0.000793705266647591</v>
+        <v>0.002553233823545527</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.200310109057028</v>
+        <v>2.399823372174495</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>6.18113418449127</v>
+        <v>3.007356510386387</v>
       </c>
       <c r="L25">
-        <v>0.2453581415203416</v>
+        <v>0.2015688854258286</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_54/res_line/pl_mw.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.09938814878539404</v>
+        <v>0.08522308205265006</v>
       </c>
       <c r="D2">
-        <v>0.1384643024135066</v>
+        <v>0.05860923757903791</v>
       </c>
       <c r="E2">
-        <v>0.1155545705233969</v>
+        <v>0.1162804595781139</v>
       </c>
       <c r="F2">
-        <v>2.542000168866508</v>
+        <v>2.241737459820527</v>
       </c>
       <c r="G2">
-        <v>0.002561627388379081</v>
+        <v>0.0008082914244866689</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.367744596680183</v>
+        <v>1.947234021287656</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.750437281852953</v>
+        <v>5.130913624101765</v>
       </c>
       <c r="L2">
-        <v>0.1946243542569732</v>
+        <v>0.2086383130063609</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.09722501049695609</v>
+        <v>0.07509241110069809</v>
       </c>
       <c r="D3">
-        <v>0.1401662198227491</v>
+        <v>0.06204907170599228</v>
       </c>
       <c r="E3">
-        <v>0.1129609120015225</v>
+        <v>0.1028762826498415</v>
       </c>
       <c r="F3">
-        <v>2.516803423652647</v>
+        <v>2.049488932920326</v>
       </c>
       <c r="G3">
-        <v>0.002567701942429623</v>
+        <v>0.0008184217839792298</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.349219118362356</v>
+        <v>1.789092409331076</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.579298125689718</v>
+        <v>4.437680691894514</v>
       </c>
       <c r="L3">
-        <v>0.1901722168959665</v>
+        <v>0.1848989814690682</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.09593890276620698</v>
+        <v>0.06896330520248739</v>
       </c>
       <c r="D4">
-        <v>0.1412723616166431</v>
+        <v>0.06432748014156076</v>
       </c>
       <c r="E4">
-        <v>0.1114343895490926</v>
+        <v>0.09486213754543016</v>
       </c>
       <c r="F4">
-        <v>2.503081329172005</v>
+        <v>1.937900123697261</v>
       </c>
       <c r="G4">
-        <v>0.002571623484156849</v>
+        <v>0.0008247820281954897</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.339411142944215</v>
+        <v>1.697532034056465</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.475668663549243</v>
+        <v>4.019139720851967</v>
       </c>
       <c r="L4">
-        <v>0.1875624879319773</v>
+        <v>0.1707852392967837</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.09542541908578528</v>
+        <v>0.06648561188817581</v>
       </c>
       <c r="D5">
-        <v>0.1417384400757804</v>
+        <v>0.06529491350708128</v>
       </c>
       <c r="E5">
-        <v>0.110828854844069</v>
+        <v>0.09164420152636055</v>
       </c>
       <c r="F5">
-        <v>2.497926094726637</v>
+        <v>1.893883563014214</v>
       </c>
       <c r="G5">
-        <v>0.002573269936149855</v>
+        <v>0.0008274116734536881</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.335805700921526</v>
+        <v>1.661473246560092</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.433801994056921</v>
+        <v>3.850101899200695</v>
       </c>
       <c r="L5">
-        <v>0.186529969231195</v>
+        <v>0.1651364169278864</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.09534079780871707</v>
+        <v>0.06607531801530087</v>
       </c>
       <c r="D6">
-        <v>0.1418167553378602</v>
+        <v>0.06545783066919242</v>
       </c>
       <c r="E6">
-        <v>0.1107293032863552</v>
+        <v>0.09111258197731331</v>
       </c>
       <c r="F6">
-        <v>2.497096352436643</v>
+        <v>1.886658085870749</v>
       </c>
       <c r="G6">
-        <v>0.00257354625610795</v>
+        <v>0.0008278506766898176</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.335230583653185</v>
+        <v>1.655557537727987</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.426871955757804</v>
+        <v>3.822117888872242</v>
       </c>
       <c r="L6">
-        <v>0.1863603851596096</v>
+        <v>0.1642042609299494</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.09593193471174288</v>
+        <v>0.06892981300696022</v>
       </c>
       <c r="D7">
-        <v>0.1412785853783447</v>
+        <v>0.06434037307686324</v>
       </c>
       <c r="E7">
-        <v>0.1114261562207588</v>
+        <v>0.09481855347005208</v>
       </c>
       <c r="F7">
-        <v>2.503010040077271</v>
+        <v>1.937300810047063</v>
       </c>
       <c r="G7">
-        <v>0.00257164549231672</v>
+        <v>0.0008248173362714143</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.33936093736871</v>
+        <v>1.697040835400642</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.475102566549481</v>
+        <v>4.01685419140199</v>
       </c>
       <c r="L7">
-        <v>0.1875484378860222</v>
+        <v>0.1707086587251041</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.09863358842538616</v>
+        <v>0.081709223767362</v>
       </c>
       <c r="D8">
-        <v>0.1390383930877412</v>
+        <v>0.0597589417179627</v>
       </c>
       <c r="E8">
-        <v>0.1146465426382868</v>
+        <v>0.1116097670298508</v>
       </c>
       <c r="F8">
-        <v>2.532947468106542</v>
+        <v>2.174005927663771</v>
       </c>
       <c r="G8">
-        <v>0.002563682205826404</v>
+        <v>0.0008117568942603758</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.361030263834792</v>
+        <v>1.891468377554247</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.691126359242332</v>
+        <v>4.890242870752559</v>
       </c>
       <c r="L8">
-        <v>0.193063425137538</v>
+        <v>0.2003484082672031</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1042641407325817</v>
+        <v>0.1076454179787447</v>
       </c>
       <c r="D9">
-        <v>0.1351333662681675</v>
+        <v>0.05224304488549336</v>
       </c>
       <c r="E9">
-        <v>0.1214885707981708</v>
+        <v>0.1465814595709354</v>
       </c>
       <c r="F9">
-        <v>2.605677939921861</v>
+        <v>2.697831713049823</v>
       </c>
       <c r="G9">
-        <v>0.002549579492072017</v>
+        <v>0.0007871279502450563</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.41607705891947</v>
+        <v>2.323834793703853</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3.126360612563076</v>
+        <v>6.673010804770684</v>
       </c>
       <c r="L9">
-        <v>0.2048708262859265</v>
+        <v>0.2628362605088483</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1086027980894784</v>
+        <v>0.1274810086898555</v>
       </c>
       <c r="D10">
-        <v>0.1325655115336843</v>
+        <v>0.04786004636592978</v>
       </c>
       <c r="E10">
-        <v>0.1268418636868063</v>
+        <v>0.1740522896395049</v>
       </c>
       <c r="F10">
-        <v>2.667875240460262</v>
+        <v>3.132615638541665</v>
       </c>
       <c r="G10">
-        <v>0.002540129362651458</v>
+        <v>0.0007694248082089989</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.464349452734439</v>
+        <v>2.684118945546743</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.45338991373211</v>
+        <v>8.047583541044958</v>
       </c>
       <c r="L10">
-        <v>0.2141651573040377</v>
+        <v>0.3125280167576676</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.110620296121823</v>
+        <v>0.1367403205319135</v>
       </c>
       <c r="D11">
-        <v>0.1314635281394771</v>
+        <v>0.04618135577579707</v>
       </c>
       <c r="E11">
-        <v>0.1293493226709401</v>
+        <v>0.1870782103659181</v>
       </c>
       <c r="F11">
-        <v>2.698120026806919</v>
+        <v>3.344900958332232</v>
       </c>
       <c r="G11">
-        <v>0.002536025656196583</v>
+        <v>0.000761400931757279</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.488048886502128</v>
+        <v>2.860366530957066</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.603784991809846</v>
+        <v>8.692924528963886</v>
       </c>
       <c r="L11">
-        <v>0.2185311290787837</v>
+        <v>0.3362574812485377</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1113905535190582</v>
+        <v>0.1402871015583003</v>
       </c>
       <c r="D12">
-        <v>0.1310558185355042</v>
+        <v>0.04559805815838303</v>
       </c>
       <c r="E12">
-        <v>0.1303093057392815</v>
+        <v>0.1921012120878842</v>
       </c>
       <c r="F12">
-        <v>2.709857181509392</v>
+        <v>3.427739631887277</v>
       </c>
       <c r="G12">
-        <v>0.002534499571942409</v>
+        <v>0.0007583612120929153</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.497276540349532</v>
+        <v>2.929193840719691</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.660972732154335</v>
+        <v>8.940776201562642</v>
       </c>
       <c r="L12">
-        <v>0.2202044892143391</v>
+        <v>0.3454352625759185</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1112243861415578</v>
+        <v>0.1395213225270879</v>
       </c>
       <c r="D13">
-        <v>0.131143198464386</v>
+        <v>0.04572122444223581</v>
       </c>
       <c r="E13">
-        <v>0.1301020896093306</v>
+        <v>0.1910151465323295</v>
       </c>
       <c r="F13">
-        <v>2.707316682051186</v>
+        <v>3.409783341261203</v>
       </c>
       <c r="G13">
-        <v>0.002534827003495302</v>
+        <v>0.0007590160228169755</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.495277891477613</v>
+        <v>2.914272356772358</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.648645777468403</v>
+        <v>8.887231817907605</v>
       </c>
       <c r="L13">
-        <v>0.2198432052758506</v>
+        <v>0.3434495884072675</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1106835400526762</v>
+        <v>0.1370312637015871</v>
       </c>
       <c r="D14">
-        <v>0.1314297930376078</v>
+        <v>0.04613227224008298</v>
       </c>
       <c r="E14">
-        <v>0.129428090911567</v>
+        <v>0.187489554339443</v>
       </c>
       <c r="F14">
-        <v>2.699079934997059</v>
+        <v>3.351664709527086</v>
       </c>
       <c r="G14">
-        <v>0.002535899546263632</v>
+        <v>0.0007611509118477954</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.488802959636331</v>
+        <v>2.865985220465362</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.608485110364484</v>
+        <v>8.713242031345999</v>
       </c>
       <c r="L14">
-        <v>0.2186683940491321</v>
+        <v>0.3370085040924522</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1103530725993664</v>
+        <v>0.1355115151236532</v>
       </c>
       <c r="D15">
-        <v>0.131606591346074</v>
+        <v>0.04639110616243514</v>
       </c>
       <c r="E15">
-        <v>0.1290166121613581</v>
+        <v>0.1853422600192829</v>
       </c>
       <c r="F15">
-        <v>2.694071795820662</v>
+        <v>3.316396454160952</v>
       </c>
       <c r="G15">
-        <v>0.002536560138021587</v>
+        <v>0.0007624582521435189</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.484869938862786</v>
+        <v>2.836689734312316</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.583916397629139</v>
+        <v>8.60714013673595</v>
       </c>
       <c r="L15">
-        <v>0.2179514076423601</v>
+        <v>0.3330891371833076</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1084718293042499</v>
+        <v>0.126881175408144</v>
       </c>
       <c r="D16">
-        <v>0.1326388662309839</v>
+        <v>0.04797666848130788</v>
       </c>
       <c r="E16">
-        <v>0.1266794551660269</v>
+        <v>0.1732128314753396</v>
       </c>
       <c r="F16">
-        <v>2.6659382343625</v>
+        <v>3.119063964610319</v>
       </c>
       <c r="G16">
-        <v>0.002540401462912376</v>
+        <v>0.0007699493304687425</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.462835907043853</v>
+        <v>2.672874641320504</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.443594192075579</v>
+        <v>8.005860750836007</v>
       </c>
       <c r="L16">
-        <v>0.2138826256330049</v>
+        <v>0.3110023394475263</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1073289513770845</v>
+        <v>0.1216515207186291</v>
       </c>
       <c r="D17">
-        <v>0.1332891287263926</v>
+        <v>0.04903470053183057</v>
       </c>
       <c r="E17">
-        <v>0.125264236608416</v>
+        <v>0.1659168114094598</v>
       </c>
       <c r="F17">
-        <v>2.649181411252187</v>
+        <v>3.001962362069406</v>
       </c>
       <c r="G17">
-        <v>0.002542807867170414</v>
+        <v>0.0007745487627595476</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.44976652138547</v>
+        <v>2.575747906512703</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3.357929589799483</v>
+        <v>7.642520303771448</v>
       </c>
       <c r="L17">
-        <v>0.2114220476512543</v>
+        <v>0.2977607869419785</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1066757243243899</v>
+        <v>0.1186653267962328</v>
       </c>
       <c r="D18">
-        <v>0.133669363946666</v>
+        <v>0.04967242316642739</v>
       </c>
       <c r="E18">
-        <v>0.1244570331304686</v>
+        <v>0.161769174936552</v>
       </c>
       <c r="F18">
-        <v>2.639726744024131</v>
+        <v>2.935948285566042</v>
       </c>
       <c r="G18">
-        <v>0.00254421035098068</v>
+        <v>0.000777197374528429</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.442412961252629</v>
+        <v>2.521024551168694</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>3.308810647408166</v>
+        <v>7.435382065623799</v>
       </c>
       <c r="L18">
-        <v>0.2100197574426659</v>
+        <v>0.2902483528935988</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1064552623813313</v>
+        <v>0.1176578084193522</v>
       </c>
       <c r="D19">
-        <v>0.1337991713055473</v>
+        <v>0.04989316101750774</v>
       </c>
       <c r="E19">
-        <v>0.1241848922475555</v>
+        <v>0.1603728480548909</v>
       </c>
       <c r="F19">
-        <v>2.63655694956708</v>
+        <v>2.913816962843384</v>
       </c>
       <c r="G19">
-        <v>0.002544688370285899</v>
+        <v>0.0007780948409112155</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.439951181442723</v>
+        <v>2.502683572733602</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>3.292206039219138</v>
+        <v>7.365549086205931</v>
       </c>
       <c r="L19">
-        <v>0.2095471867097984</v>
+        <v>0.2877217503583438</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1074501858487906</v>
+        <v>0.1222059297129618</v>
       </c>
       <c r="D20">
-        <v>0.1332192627341087</v>
+        <v>0.04891900519823977</v>
       </c>
       <c r="E20">
-        <v>0.1254141854555115</v>
+        <v>0.1666883344862384</v>
       </c>
       <c r="F20">
-        <v>2.650946195275054</v>
+        <v>3.01428691949036</v>
       </c>
       <c r="G20">
-        <v>0.002542549799807343</v>
+        <v>0.000774058857243954</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.451140825915843</v>
+        <v>2.585967003740308</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3.367032874332949</v>
+        <v>7.681003518529394</v>
       </c>
       <c r="L20">
-        <v>0.2116826364919291</v>
+        <v>0.2991594311617689</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1108422295682345</v>
+        <v>0.1377614981641102</v>
       </c>
       <c r="D21">
-        <v>0.1313453524490882</v>
+        <v>0.04601005261978841</v>
       </c>
       <c r="E21">
-        <v>0.1296257760780719</v>
+        <v>0.1885225280120295</v>
       </c>
       <c r="F21">
-        <v>2.701491527932802</v>
+        <v>3.368665819734247</v>
       </c>
       <c r="G21">
-        <v>0.002535583758658033</v>
+        <v>0.0007605239253735726</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.490697908639376</v>
+        <v>2.880108970609541</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.620274837246029</v>
+        <v>8.764247506544052</v>
       </c>
       <c r="L21">
-        <v>0.21901291829532</v>
+        <v>0.3388949303218283</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1130956890220745</v>
+        <v>0.1481677763180187</v>
       </c>
       <c r="D22">
-        <v>0.1301765635855929</v>
+        <v>0.04441856990671056</v>
       </c>
       <c r="E22">
-        <v>0.1324393170019249</v>
+        <v>0.2033276367910233</v>
       </c>
       <c r="F22">
-        <v>2.736183524525387</v>
+        <v>3.614775817611161</v>
       </c>
       <c r="G22">
-        <v>0.002531193593893942</v>
+        <v>0.0007516675275675719</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.518027953843458</v>
+        <v>3.084692064889538</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.78716211386444</v>
+        <v>9.492817956896886</v>
       </c>
       <c r="L22">
-        <v>0.2239207228196562</v>
+        <v>0.3660012097731453</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1118896380619674</v>
+        <v>0.1425893501162676</v>
       </c>
       <c r="D23">
-        <v>0.1307952261796039</v>
+        <v>0.04523692624849573</v>
       </c>
       <c r="E23">
-        <v>0.1309320672825578</v>
+        <v>0.1953715317900446</v>
       </c>
       <c r="F23">
-        <v>2.717514883016349</v>
+        <v>3.481957384200115</v>
       </c>
       <c r="G23">
-        <v>0.002533521890639674</v>
+        <v>0.0007563973763387022</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.503305238915203</v>
+        <v>2.974255840860536</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.697964257078581</v>
+        <v>9.101857029904977</v>
       </c>
       <c r="L23">
-        <v>0.2212905497532773</v>
+        <v>0.3514186472258984</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.107395363815499</v>
+        <v>0.1219552183308394</v>
       </c>
       <c r="D24">
-        <v>0.1332508292494623</v>
+        <v>0.04897121985743169</v>
       </c>
       <c r="E24">
-        <v>0.1253463735765052</v>
+        <v>0.1663393837299409</v>
       </c>
       <c r="F24">
-        <v>2.650147778975906</v>
+        <v>3.008710936034333</v>
       </c>
       <c r="G24">
-        <v>0.002542666412898896</v>
+        <v>0.0007742803297128006</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.450519004062969</v>
+        <v>2.581343496193</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.362916872221717</v>
+        <v>7.663599846508248</v>
       </c>
       <c r="L24">
-        <v>0.2115647858924206</v>
+        <v>0.2985267938763343</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1027054173542155</v>
+        <v>0.1005118593186864</v>
       </c>
       <c r="D25">
-        <v>0.1361371608478592</v>
+        <v>0.05409632072648307</v>
       </c>
       <c r="E25">
-        <v>0.1195806813906373</v>
+        <v>0.1368514984307332</v>
       </c>
       <c r="F25">
-        <v>2.584479215333943</v>
+        <v>2.548450537268323</v>
       </c>
       <c r="G25">
-        <v>0.002553233823545527</v>
+        <v>0.0007937052665860644</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.399823372174495</v>
+        <v>2.200310109057057</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3.007356510386387</v>
+        <v>6.18113418449127</v>
       </c>
       <c r="L25">
-        <v>0.2015688854258286</v>
+        <v>0.2453581415202279</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_54/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.08522308205265006</v>
+        <v>0.08034263208041637</v>
       </c>
       <c r="D2">
-        <v>0.05860923757903791</v>
+        <v>0.08220986235136252</v>
       </c>
       <c r="E2">
-        <v>0.1162804595781139</v>
+        <v>0.2188184430949178</v>
       </c>
       <c r="F2">
-        <v>2.241737459820527</v>
+        <v>0.3022513736992778</v>
       </c>
       <c r="G2">
-        <v>0.0008082914244866689</v>
+        <v>0.1994831574096168</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0008640842936756821</v>
       </c>
       <c r="I2">
-        <v>1.947234021287656</v>
+        <v>0.01159853235242458</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2017154842705438</v>
       </c>
       <c r="K2">
-        <v>5.130913624101765</v>
+        <v>0.2401888458734298</v>
       </c>
       <c r="L2">
-        <v>0.2086383130063609</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>3.549375539108553</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>1.036863580833192</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.794684266450929</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.07509241110069809</v>
+        <v>0.07051125825923066</v>
       </c>
       <c r="D3">
-        <v>0.06204907170599228</v>
+        <v>0.07258686884095766</v>
       </c>
       <c r="E3">
-        <v>0.1028762826498415</v>
+        <v>0.1970014805766382</v>
       </c>
       <c r="F3">
-        <v>2.049488932920326</v>
+        <v>0.2870171460715838</v>
       </c>
       <c r="G3">
-        <v>0.0008184217839792298</v>
+        <v>0.1925406442914905</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0002714196376552014</v>
       </c>
       <c r="I3">
-        <v>1.789092409331076</v>
+        <v>0.008941721712003581</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2032490389401787</v>
       </c>
       <c r="K3">
-        <v>4.437680691894514</v>
+        <v>0.2315874242433971</v>
       </c>
       <c r="L3">
-        <v>0.1848989814690682</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>3.106193045315081</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.903101956289369</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.7828820657503428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.06896330520248739</v>
+        <v>0.06431565826029129</v>
       </c>
       <c r="D4">
-        <v>0.06432748014156076</v>
+        <v>0.06668523307176599</v>
       </c>
       <c r="E4">
-        <v>0.09486213754543016</v>
+        <v>0.1836050571597632</v>
       </c>
       <c r="F4">
-        <v>1.937900123697261</v>
+        <v>0.2781434885800138</v>
       </c>
       <c r="G4">
-        <v>0.0008247820281954897</v>
+        <v>0.1886869028657259</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>6.835297929308481E-05</v>
       </c>
       <c r="I4">
-        <v>1.697532034056465</v>
+        <v>0.007456730645025278</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2044739624742533</v>
       </c>
       <c r="K4">
-        <v>4.019139720851967</v>
+        <v>0.2265156190526625</v>
       </c>
       <c r="L4">
-        <v>0.1707852392967837</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>2.83344211050067</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.8209237245485426</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.7770882547994802</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.06648561188817581</v>
+        <v>0.06137091288653806</v>
       </c>
       <c r="D5">
-        <v>0.06529491350708128</v>
+        <v>0.06435121018959222</v>
       </c>
       <c r="E5">
-        <v>0.09164420152636055</v>
+        <v>0.1781314656357118</v>
       </c>
       <c r="F5">
-        <v>1.893883563014214</v>
+        <v>0.2743051771924101</v>
       </c>
       <c r="G5">
-        <v>0.0008274116734536881</v>
+        <v>0.1869033530031814</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.345744020626483E-05</v>
       </c>
       <c r="I5">
-        <v>1.661473246560092</v>
+        <v>0.00693295434718566</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2048796896712943</v>
       </c>
       <c r="K5">
-        <v>3.850101899200695</v>
+        <v>0.2240806015040668</v>
       </c>
       <c r="L5">
-        <v>0.1651364169278864</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>2.722085325188232</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.7874131235716604</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.7740774957375436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.06607531801530087</v>
+        <v>0.06041579364039507</v>
       </c>
       <c r="D6">
-        <v>0.06545783066919242</v>
+        <v>0.06404920046634999</v>
       </c>
       <c r="E6">
-        <v>0.09111258197731331</v>
+        <v>0.1772078492714542</v>
       </c>
       <c r="F6">
-        <v>1.886658085870749</v>
+        <v>0.2732634174635038</v>
       </c>
       <c r="G6">
-        <v>0.0008278506766898176</v>
+        <v>0.1862342592109911</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.813339985701212E-05</v>
       </c>
       <c r="I6">
-        <v>1.655557537727987</v>
+        <v>0.006913281036035279</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2047531621104852</v>
       </c>
       <c r="K6">
-        <v>3.822117888872242</v>
+        <v>0.2231688573344357</v>
       </c>
       <c r="L6">
-        <v>0.1642042609299494</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2.703538669423835</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.7818430229771707</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.7723803636548467</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.06892981300696022</v>
+        <v>0.06300205618601495</v>
       </c>
       <c r="D7">
-        <v>0.06434037307686324</v>
+        <v>0.06688797492272158</v>
       </c>
       <c r="E7">
-        <v>0.09481855347005208</v>
+        <v>0.1834920979667523</v>
       </c>
       <c r="F7">
-        <v>1.937300810047063</v>
+        <v>0.2769676495462718</v>
       </c>
       <c r="G7">
-        <v>0.0008248173362714143</v>
+        <v>0.1876276903630583</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>6.70620131897337E-05</v>
       </c>
       <c r="I7">
-        <v>1.697040835400642</v>
+        <v>0.007613274281871085</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2039391336991514</v>
       </c>
       <c r="K7">
-        <v>4.01685419140199</v>
+        <v>0.2250866679455683</v>
       </c>
       <c r="L7">
-        <v>0.1707086587251041</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>2.831817258133469</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.8204594159348204</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.7737206060050852</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.081709223767362</v>
+        <v>0.07527998700849281</v>
       </c>
       <c r="D8">
-        <v>0.0597589417179627</v>
+        <v>0.07920337589711579</v>
       </c>
       <c r="E8">
-        <v>0.1116097670298508</v>
+        <v>0.211244898359368</v>
       </c>
       <c r="F8">
-        <v>2.174005927663771</v>
+        <v>0.2954060889805845</v>
       </c>
       <c r="G8">
-        <v>0.0008117568942603758</v>
+        <v>0.1956308492318257</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0006227902330095958</v>
       </c>
       <c r="I8">
-        <v>1.891468377554247</v>
+        <v>0.01084088843470354</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2014729288675312</v>
       </c>
       <c r="K8">
-        <v>4.890242870752559</v>
+        <v>0.2353261324436104</v>
       </c>
       <c r="L8">
-        <v>0.2003484082672031</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>3.396525620902935</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.990729484106339</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.7859079409852541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1076454179787447</v>
+        <v>0.1003865177941492</v>
       </c>
       <c r="D9">
-        <v>0.05224304488549336</v>
+        <v>0.1030113902230312</v>
       </c>
       <c r="E9">
-        <v>0.1465814595709354</v>
+        <v>0.2658409510427262</v>
       </c>
       <c r="F9">
-        <v>2.697831713049823</v>
+        <v>0.3377060647979846</v>
       </c>
       <c r="G9">
-        <v>0.0007871279502450563</v>
+        <v>0.2167106741114324</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.003109213843431879</v>
       </c>
       <c r="I9">
-        <v>2.323834793703853</v>
+        <v>0.01822719154571306</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1999702077799057</v>
       </c>
       <c r="K9">
-        <v>6.673010804770684</v>
+        <v>0.2597200071088466</v>
       </c>
       <c r="L9">
-        <v>0.2628362605088483</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>4.49975075423481</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.324608673887781</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.8281475056810024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1274810086898555</v>
+        <v>0.1181639655683</v>
       </c>
       <c r="D10">
-        <v>0.04786004636592978</v>
+        <v>0.1219858510609697</v>
       </c>
       <c r="E10">
-        <v>0.1740522896395049</v>
+        <v>0.2818179247357691</v>
       </c>
       <c r="F10">
-        <v>3.132615638541665</v>
+        <v>0.3652748899686458</v>
       </c>
       <c r="G10">
-        <v>0.0007694248082089989</v>
+        <v>0.2288224398788046</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.005850747027441372</v>
       </c>
       <c r="I10">
-        <v>2.684118945546743</v>
+        <v>0.02463544610743273</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1974177550797691</v>
       </c>
       <c r="K10">
-        <v>8.047583541044958</v>
+        <v>0.2738665824449811</v>
       </c>
       <c r="L10">
-        <v>0.3125280167576676</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>5.335973251451094</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.532463491317358</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.848954692696978</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1367403205319135</v>
+        <v>0.1311546875360534</v>
       </c>
       <c r="D11">
-        <v>0.04618135577579707</v>
+        <v>0.1426830002967847</v>
       </c>
       <c r="E11">
-        <v>0.1870782103659181</v>
+        <v>0.1271574246289617</v>
       </c>
       <c r="F11">
-        <v>3.344900958332232</v>
+        <v>0.3266375359054905</v>
       </c>
       <c r="G11">
-        <v>0.000761400931757279</v>
+        <v>0.1885148246498503</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02364478502669698</v>
       </c>
       <c r="I11">
-        <v>2.860366530957066</v>
+        <v>0.02745997999349914</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1724068612285166</v>
       </c>
       <c r="K11">
-        <v>8.692924528963886</v>
+        <v>0.2414891381260098</v>
       </c>
       <c r="L11">
-        <v>0.3362574812485377</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>5.96308474628745</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.311067813901985</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.7113309607704679</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1402871015583003</v>
+        <v>0.1411060524312688</v>
       </c>
       <c r="D12">
-        <v>0.04559805815838303</v>
+        <v>0.1565187425367043</v>
       </c>
       <c r="E12">
-        <v>0.1921012120878842</v>
+        <v>0.06003570031331318</v>
       </c>
       <c r="F12">
-        <v>3.427739631887277</v>
+        <v>0.2912004259071495</v>
       </c>
       <c r="G12">
-        <v>0.0007583612120929153</v>
+        <v>0.1560750631909897</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06158744872710287</v>
       </c>
       <c r="I12">
-        <v>2.929193840719691</v>
+        <v>0.02826748500267939</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1536674799070283</v>
       </c>
       <c r="K12">
-        <v>8.940776201562642</v>
+        <v>0.2145464954148224</v>
       </c>
       <c r="L12">
-        <v>0.3454352625759185</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.328960726120556</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.097791972110521</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.6033966392021597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1395213225270879</v>
+        <v>0.1471654915418981</v>
       </c>
       <c r="D13">
-        <v>0.04572122444223581</v>
+        <v>0.1660985879855303</v>
       </c>
       <c r="E13">
-        <v>0.1910151465323295</v>
+        <v>0.05499811440985169</v>
       </c>
       <c r="F13">
-        <v>3.409783341261203</v>
+        <v>0.2542031441688835</v>
       </c>
       <c r="G13">
-        <v>0.0007590160228169755</v>
+        <v>0.1259610173774206</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1165499432409831</v>
       </c>
       <c r="I13">
-        <v>2.914272356772358</v>
+        <v>0.02774813890503935</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.137669950150574</v>
       </c>
       <c r="K13">
-        <v>8.887231817907605</v>
+        <v>0.1879195650714003</v>
       </c>
       <c r="L13">
-        <v>0.3434495884072675</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.510982800924921</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.8797394000741718</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.5060425010145622</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1370312637015871</v>
+        <v>0.1492160336534596</v>
       </c>
       <c r="D14">
-        <v>0.04613227224008298</v>
+        <v>0.1709728398579955</v>
       </c>
       <c r="E14">
-        <v>0.187489554339443</v>
+        <v>0.08770002128776966</v>
       </c>
       <c r="F14">
-        <v>3.351664709527086</v>
+        <v>0.2276870942246774</v>
       </c>
       <c r="G14">
-        <v>0.0007611509118477954</v>
+        <v>0.106182820926584</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.16535898128474</v>
       </c>
       <c r="I14">
-        <v>2.865985220465362</v>
+        <v>0.02685833419911177</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1277867577068648</v>
       </c>
       <c r="K14">
-        <v>8.713242031345999</v>
+        <v>0.1693782215437736</v>
       </c>
       <c r="L14">
-        <v>0.3370085040924522</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.554829491919634</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.7287333452188705</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.4433655754564825</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1355115151236532</v>
+        <v>0.1481819065352994</v>
       </c>
       <c r="D15">
-        <v>0.04639110616243514</v>
+        <v>0.1712459998578595</v>
       </c>
       <c r="E15">
-        <v>0.1853422600192829</v>
+        <v>0.1000454697606656</v>
       </c>
       <c r="F15">
-        <v>3.316396454160952</v>
+        <v>0.2204224168246043</v>
       </c>
       <c r="G15">
-        <v>0.0007624582521435189</v>
+        <v>0.101286795817046</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1776652143610988</v>
       </c>
       <c r="I15">
-        <v>2.836689734312316</v>
+        <v>0.02642712171241435</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1256976357911412</v>
       </c>
       <c r="K15">
-        <v>8.60714013673595</v>
+        <v>0.164393889172576</v>
       </c>
       <c r="L15">
-        <v>0.3330891371833076</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.523970590677493</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.6890935365597031</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.428577587773006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.126881175408144</v>
+        <v>0.1382255846598781</v>
       </c>
       <c r="D16">
-        <v>0.04797666848130788</v>
+        <v>0.160892178577015</v>
       </c>
       <c r="E16">
-        <v>0.1732128314753396</v>
+        <v>0.09425048387982926</v>
       </c>
       <c r="F16">
-        <v>3.119063964610319</v>
+        <v>0.2152750442396254</v>
       </c>
       <c r="G16">
-        <v>0.0007699493304687425</v>
+        <v>0.1013838451220792</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1640185284449984</v>
       </c>
       <c r="I16">
-        <v>2.672874641320504</v>
+        <v>0.02371261527438318</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.129451469433377</v>
       </c>
       <c r="K16">
-        <v>8.005860750836007</v>
+        <v>0.1629458249682791</v>
       </c>
       <c r="L16">
-        <v>0.3110023394475263</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.118047685213298</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.6510451198430758</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.4364417144981729</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1216515207186291</v>
+        <v>0.1294740325444366</v>
       </c>
       <c r="D17">
-        <v>0.04903470053183057</v>
+        <v>0.1503924225226569</v>
       </c>
       <c r="E17">
-        <v>0.1659168114094598</v>
+        <v>0.06671194753039522</v>
       </c>
       <c r="F17">
-        <v>3.001962362069406</v>
+        <v>0.2253495062304154</v>
       </c>
       <c r="G17">
-        <v>0.0007745487627595476</v>
+        <v>0.1118004673582789</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1258131309060815</v>
       </c>
       <c r="I17">
-        <v>2.575747906512703</v>
+        <v>0.0221597817246737</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1375580012282853</v>
       </c>
       <c r="K17">
-        <v>7.642520303771448</v>
+        <v>0.1715538074610592</v>
       </c>
       <c r="L17">
-        <v>0.2977607869419785</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>5.784631934220329</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.6992634431373261</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.4753723267772898</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1186653267962328</v>
+        <v>0.1222252513992714</v>
       </c>
       <c r="D18">
-        <v>0.04967242316642739</v>
+        <v>0.1386206232522937</v>
       </c>
       <c r="E18">
-        <v>0.161769174936552</v>
+        <v>0.0490922405369093</v>
       </c>
       <c r="F18">
-        <v>2.935948285566042</v>
+        <v>0.2510979834260425</v>
       </c>
       <c r="G18">
-        <v>0.000777197374528429</v>
+        <v>0.1341649720738403</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07304932809380915</v>
       </c>
       <c r="I18">
-        <v>2.521024551168694</v>
+        <v>0.02121228709848122</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.151170940478579</v>
       </c>
       <c r="K18">
-        <v>7.435382065623799</v>
+        <v>0.1913572473450316</v>
       </c>
       <c r="L18">
-        <v>0.2902483528935988</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>5.480047697575571</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.8365910836877575</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.5512174768596481</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1176578084193522</v>
+        <v>0.1143154419265073</v>
       </c>
       <c r="D19">
-        <v>0.04989316101750774</v>
+        <v>0.1275962867598395</v>
       </c>
       <c r="E19">
-        <v>0.1603728480548909</v>
+        <v>0.0880726258259763</v>
       </c>
       <c r="F19">
-        <v>2.913816962843384</v>
+        <v>0.2871869070674578</v>
       </c>
       <c r="G19">
-        <v>0.0007780948409112155</v>
+        <v>0.1652730342426523</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02848397170805583</v>
       </c>
       <c r="I19">
-        <v>2.502683572733602</v>
+        <v>0.0212691895997299</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1683870711836235</v>
       </c>
       <c r="K19">
-        <v>7.365549086205931</v>
+        <v>0.2177797094421514</v>
       </c>
       <c r="L19">
-        <v>0.2877217503583438</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>5.225990590444155</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>1.051134101511373</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.6531949240052626</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1222059297129618</v>
+        <v>0.109509428155647</v>
       </c>
       <c r="D20">
-        <v>0.04891900519823977</v>
+        <v>0.1178062955572869</v>
       </c>
       <c r="E20">
-        <v>0.1666883344862384</v>
+        <v>0.2764417954043097</v>
       </c>
       <c r="F20">
-        <v>3.01428691949036</v>
+        <v>0.3540729380155838</v>
       </c>
       <c r="G20">
-        <v>0.000774058857243954</v>
+        <v>0.2220267317641955</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.005022433453043096</v>
       </c>
       <c r="I20">
-        <v>2.585967003740308</v>
+        <v>0.02340850799644745</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1962079463029056</v>
       </c>
       <c r="K20">
-        <v>7.681003518529394</v>
+        <v>0.2655330263568878</v>
       </c>
       <c r="L20">
-        <v>0.2991594311617689</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>5.117143774881356</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.476254047108483</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.8318900677561061</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1377614981641102</v>
+        <v>0.1225256198516718</v>
       </c>
       <c r="D21">
-        <v>0.04601005261978841</v>
+        <v>0.1302826923600975</v>
       </c>
       <c r="E21">
-        <v>0.1885225280120295</v>
+        <v>0.3265338104707141</v>
       </c>
       <c r="F21">
-        <v>3.368665819734247</v>
+        <v>0.386221273263132</v>
       </c>
       <c r="G21">
-        <v>0.0007605239253735726</v>
+        <v>0.2413409220348157</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.007671449213893511</v>
       </c>
       <c r="I21">
-        <v>2.880108970609541</v>
+        <v>0.02869631907039683</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1995302053943959</v>
       </c>
       <c r="K21">
-        <v>8.764247506544052</v>
+        <v>0.2845847614215131</v>
       </c>
       <c r="L21">
-        <v>0.3388949303218283</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>5.716412364704468</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.694630012688506</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.8801494592619008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1481677763180187</v>
+        <v>0.1329617704632824</v>
       </c>
       <c r="D22">
-        <v>0.04441856990671056</v>
+        <v>0.1387979796187437</v>
       </c>
       <c r="E22">
-        <v>0.2033276367910233</v>
+        <v>0.3469884225630011</v>
       </c>
       <c r="F22">
-        <v>3.614775817611161</v>
+        <v>0.4063748141202908</v>
       </c>
       <c r="G22">
-        <v>0.0007516675275675719</v>
+        <v>0.2531516631941457</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.009587126452130602</v>
       </c>
       <c r="I22">
-        <v>3.084692064889538</v>
+        <v>0.03213966505007626</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2013121570416985</v>
       </c>
       <c r="K22">
-        <v>9.492817956896886</v>
+        <v>0.2969339935801614</v>
       </c>
       <c r="L22">
-        <v>0.3660012097731453</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>6.122209189125726</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.818369621252344</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0.9091461621680139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1425893501162676</v>
+        <v>0.1289458404236257</v>
       </c>
       <c r="D23">
-        <v>0.04523692624849573</v>
+        <v>0.1339621810950007</v>
       </c>
       <c r="E23">
-        <v>0.1953715317900446</v>
+        <v>0.3361014150899706</v>
       </c>
       <c r="F23">
-        <v>3.481957384200115</v>
+        <v>0.396880160906413</v>
       </c>
       <c r="G23">
-        <v>0.0007563973763387022</v>
+        <v>0.2480066969805392</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.008547278029048477</v>
       </c>
       <c r="I23">
-        <v>2.974255840860536</v>
+        <v>0.0300741478342248</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2009498726489198</v>
       </c>
       <c r="K23">
-        <v>9.101857029904977</v>
+        <v>0.2919630884739775</v>
       </c>
       <c r="L23">
-        <v>0.3514186472258984</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>5.905769234305353</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.752325555426879</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0.8973604204977192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1219552183308394</v>
+        <v>0.1110320437450838</v>
       </c>
       <c r="D24">
-        <v>0.04897121985743169</v>
+        <v>0.1161557181371222</v>
       </c>
       <c r="E24">
-        <v>0.1663393837299409</v>
+        <v>0.2950021698705427</v>
       </c>
       <c r="F24">
-        <v>3.008710936034333</v>
+        <v>0.360274844946062</v>
       </c>
       <c r="G24">
-        <v>0.0007742803297128006</v>
+        <v>0.2278680371088981</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.005084994038358603</v>
       </c>
       <c r="I24">
-        <v>2.581343496193</v>
+        <v>0.02304170614597734</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1993389374078305</v>
       </c>
       <c r="K24">
-        <v>7.663599846508248</v>
+        <v>0.271214457430542</v>
       </c>
       <c r="L24">
-        <v>0.2985267938763343</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>5.08599789615846</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.502690722303612</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.8508262502654134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1005118593186864</v>
+        <v>0.0913915709601838</v>
       </c>
       <c r="D25">
-        <v>0.05409632072648307</v>
+        <v>0.09699181111763977</v>
       </c>
       <c r="E25">
-        <v>0.1368514984307332</v>
+        <v>0.2509786462461179</v>
       </c>
       <c r="F25">
-        <v>2.548450537268323</v>
+        <v>0.3237398080645946</v>
       </c>
       <c r="G25">
-        <v>0.0007937052665860644</v>
+        <v>0.2087194347604751</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.002265381026075763</v>
       </c>
       <c r="I25">
-        <v>2.200310109057057</v>
+        <v>0.01635477830944687</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1991406637850091</v>
       </c>
       <c r="K25">
-        <v>6.18113418449127</v>
+        <v>0.2503768373900677</v>
       </c>
       <c r="L25">
-        <v>0.2453581415202279</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>4.201434709194871</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.234208471542857</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.8092854035936909</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_54/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.08034263208041637</v>
+        <v>0.05503651661252462</v>
       </c>
       <c r="D2">
-        <v>0.08220986235136252</v>
+        <v>0.08755759756135006</v>
       </c>
       <c r="E2">
-        <v>0.2188184430949178</v>
+        <v>0.2165722153876999</v>
       </c>
       <c r="F2">
-        <v>0.3022513736992778</v>
+        <v>0.2819519053554487</v>
       </c>
       <c r="G2">
-        <v>0.1994831574096168</v>
+        <v>0.164685617396799</v>
       </c>
       <c r="H2">
-        <v>0.0008640842936756821</v>
+        <v>0.0007585807534861155</v>
       </c>
       <c r="I2">
-        <v>0.01159853235242458</v>
+        <v>0.01064318019590171</v>
       </c>
       <c r="J2">
-        <v>0.2017154842705438</v>
+        <v>0.232322929046525</v>
       </c>
       <c r="K2">
-        <v>0.2401888458734298</v>
+        <v>0.2143765541313805</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1388105465888074</v>
       </c>
       <c r="M2">
-        <v>3.549375539108553</v>
+        <v>0.04331597526070219</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.036863580833192</v>
+        <v>3.541838856672371</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.794684266450929</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>1.035963875515193</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.7390805514026511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.07051125825923066</v>
+        <v>0.04947980479006731</v>
       </c>
       <c r="D3">
-        <v>0.07258686884095766</v>
+        <v>0.07682342169996303</v>
       </c>
       <c r="E3">
-        <v>0.1970014805766382</v>
+        <v>0.1953106925983725</v>
       </c>
       <c r="F3">
-        <v>0.2870171460715838</v>
+        <v>0.2705725411022613</v>
       </c>
       <c r="G3">
-        <v>0.1925406442914905</v>
+        <v>0.1610369778772309</v>
       </c>
       <c r="H3">
-        <v>0.0002714196376552014</v>
+        <v>0.0002270802406210137</v>
       </c>
       <c r="I3">
-        <v>0.008941721712003581</v>
+        <v>0.008430768710065983</v>
       </c>
       <c r="J3">
-        <v>0.2032490389401787</v>
+        <v>0.2338158368478958</v>
       </c>
       <c r="K3">
-        <v>0.2315874242433971</v>
+        <v>0.2099992286442571</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1425659666732599</v>
       </c>
       <c r="M3">
-        <v>3.106193045315081</v>
+        <v>0.03704195507754271</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.903101956289369</v>
+        <v>3.100723942825027</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.7828820657503428</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.9025090068323252</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.737394046647438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.06431565826029129</v>
+        <v>0.04590931428389666</v>
       </c>
       <c r="D4">
-        <v>0.06668523307176599</v>
+        <v>0.07025372381384898</v>
       </c>
       <c r="E4">
-        <v>0.1836050571597632</v>
+        <v>0.1822603610325224</v>
       </c>
       <c r="F4">
-        <v>0.2781434885800138</v>
+        <v>0.2639667983747671</v>
       </c>
       <c r="G4">
-        <v>0.1886869028657259</v>
+        <v>0.1591967545347117</v>
       </c>
       <c r="H4">
-        <v>6.835297929308481E-05</v>
+        <v>5.103579961662774E-05</v>
       </c>
       <c r="I4">
-        <v>0.007456730645025278</v>
+        <v>0.007187102793094979</v>
       </c>
       <c r="J4">
-        <v>0.2044739624742533</v>
+        <v>0.2348624536011599</v>
       </c>
       <c r="K4">
-        <v>0.2265156190526625</v>
+        <v>0.2074123815694406</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1449144651337768</v>
       </c>
       <c r="M4">
-        <v>2.83344211050067</v>
+        <v>0.0337261575170853</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.8209237245485426</v>
+        <v>2.829192518300175</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.7770882547994802</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.8204936988115321</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.7375146256396761</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.06137091288653806</v>
+        <v>0.0441021811069362</v>
       </c>
       <c r="D5">
-        <v>0.06435121018959222</v>
+        <v>0.06765126915707498</v>
       </c>
       <c r="E5">
-        <v>0.1781314656357118</v>
+        <v>0.176930144954202</v>
       </c>
       <c r="F5">
-        <v>0.2743051771924101</v>
+        <v>0.2610496974477137</v>
       </c>
       <c r="G5">
-        <v>0.1869033530031814</v>
+        <v>0.1582605973681908</v>
       </c>
       <c r="H5">
-        <v>2.345744020626483E-05</v>
+        <v>1.4723820245921E-05</v>
       </c>
       <c r="I5">
-        <v>0.00693295434718566</v>
+        <v>0.00676768873107747</v>
       </c>
       <c r="J5">
-        <v>0.2048796896712943</v>
+        <v>0.2351625757857363</v>
       </c>
       <c r="K5">
-        <v>0.2240806015040668</v>
+        <v>0.2060045146245528</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1456911290399354</v>
       </c>
       <c r="M5">
-        <v>2.722085325188232</v>
+        <v>0.03241176922561806</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7874131235716604</v>
+        <v>2.718325357780287</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.7740774957375436</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.7870441289527506</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.7369207577434196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.06041579364039507</v>
+        <v>0.04342021849604549</v>
       </c>
       <c r="D6">
-        <v>0.06404920046634999</v>
+        <v>0.06730522648854986</v>
       </c>
       <c r="E6">
-        <v>0.1772078492714542</v>
+        <v>0.1760315680837046</v>
       </c>
       <c r="F6">
-        <v>0.2732634174635038</v>
+        <v>0.2601851215187807</v>
       </c>
       <c r="G6">
-        <v>0.1862342592109911</v>
+        <v>0.1577681929043635</v>
       </c>
       <c r="H6">
-        <v>1.813339985701212E-05</v>
+        <v>1.071051045342664E-05</v>
       </c>
       <c r="I6">
-        <v>0.006913281036035279</v>
+        <v>0.006782723879302566</v>
       </c>
       <c r="J6">
-        <v>0.2047531621104852</v>
+        <v>0.2350213750331065</v>
       </c>
       <c r="K6">
-        <v>0.2231688573344357</v>
+        <v>0.2053120340180605</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1455883009787193</v>
       </c>
       <c r="M6">
-        <v>2.703538669423835</v>
+        <v>0.03208284693739571</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7818430229771707</v>
+        <v>2.699863044581264</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.7723803636548467</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.7814841557098333</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.7357167881140327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.06300205618601495</v>
+        <v>0.04497214246421777</v>
       </c>
       <c r="D7">
-        <v>0.06688797492272158</v>
+        <v>0.07059774338287639</v>
       </c>
       <c r="E7">
-        <v>0.1834920979667523</v>
+        <v>0.1821294477072719</v>
       </c>
       <c r="F7">
-        <v>0.2769676495462718</v>
+        <v>0.2622402402692217</v>
       </c>
       <c r="G7">
-        <v>0.1876276903630583</v>
+        <v>0.16006365166362</v>
       </c>
       <c r="H7">
-        <v>6.70620131897337E-05</v>
+        <v>4.970256388125982E-05</v>
       </c>
       <c r="I7">
-        <v>0.007613274281871085</v>
+        <v>0.007384968477312626</v>
       </c>
       <c r="J7">
-        <v>0.2039391336991514</v>
+        <v>0.2314901184126228</v>
       </c>
       <c r="K7">
-        <v>0.2250866679455683</v>
+        <v>0.2057079075379633</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1440964993569125</v>
       </c>
       <c r="M7">
-        <v>2.831817258133469</v>
+        <v>0.0332506097025469</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.8204594159348204</v>
+        <v>2.827511587160075</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.7737206060050852</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.8200237233108041</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.7326111476615864</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.07527998700849281</v>
+        <v>0.05220170459757867</v>
       </c>
       <c r="D8">
-        <v>0.07920337589711579</v>
+        <v>0.08465277191772458</v>
       </c>
       <c r="E8">
-        <v>0.211244898359368</v>
+        <v>0.20912261508483</v>
       </c>
       <c r="F8">
-        <v>0.2954060889805845</v>
+        <v>0.2744617727546057</v>
       </c>
       <c r="G8">
-        <v>0.1956308492318257</v>
+        <v>0.1681963070105468</v>
       </c>
       <c r="H8">
-        <v>0.0006227902330095958</v>
+        <v>0.0005382097689929921</v>
       </c>
       <c r="I8">
-        <v>0.01084088843470354</v>
+        <v>0.01008176150098716</v>
       </c>
       <c r="J8">
-        <v>0.2014729288675312</v>
+        <v>0.2229385940357389</v>
       </c>
       <c r="K8">
-        <v>0.2353261324436104</v>
+        <v>0.209786789673668</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1387221311603781</v>
       </c>
       <c r="M8">
-        <v>3.396525620902935</v>
+        <v>0.04008341098692725</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.990729484106339</v>
+        <v>3.389492970880156</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.7859079409852541</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.9899152827604212</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.7282093895756674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1003865177941492</v>
+        <v>0.06651543967925022</v>
       </c>
       <c r="D9">
-        <v>0.1030113902230312</v>
+        <v>0.1114584831148022</v>
       </c>
       <c r="E9">
-        <v>0.2658409510427262</v>
+        <v>0.2623396401156128</v>
       </c>
       <c r="F9">
-        <v>0.3377060647979846</v>
+        <v>0.3058923299907192</v>
       </c>
       <c r="G9">
-        <v>0.2167106741114324</v>
+        <v>0.182599583426331</v>
       </c>
       <c r="H9">
-        <v>0.003109213843431879</v>
+        <v>0.002799856979121218</v>
       </c>
       <c r="I9">
-        <v>0.01822719154571306</v>
+        <v>0.01609022118988701</v>
       </c>
       <c r="J9">
-        <v>0.1999702077799057</v>
+        <v>0.2181252698472633</v>
       </c>
       <c r="K9">
-        <v>0.2597200071088466</v>
+        <v>0.2224663185916746</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1302758072701309</v>
       </c>
       <c r="M9">
-        <v>4.49975075423481</v>
+        <v>0.05893939965559269</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.324608673887781</v>
+        <v>4.487102520039173</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.8281475056810024</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.322836362004068</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.7415213625784105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1181639655683</v>
+        <v>0.07747983069693021</v>
       </c>
       <c r="D10">
-        <v>0.1219858510609697</v>
+        <v>0.1335728240242986</v>
       </c>
       <c r="E10">
-        <v>0.2818179247357691</v>
+        <v>0.2772776844749387</v>
       </c>
       <c r="F10">
-        <v>0.3652748899686458</v>
+        <v>0.3220821915700256</v>
       </c>
       <c r="G10">
-        <v>0.2288224398788046</v>
+        <v>0.2015559234393862</v>
       </c>
       <c r="H10">
-        <v>0.005850747027441372</v>
+        <v>0.005309122926835386</v>
       </c>
       <c r="I10">
-        <v>0.02463544610743273</v>
+        <v>0.02126294793731986</v>
       </c>
       <c r="J10">
-        <v>0.1974177550797691</v>
+        <v>0.1983013546498782</v>
       </c>
       <c r="K10">
-        <v>0.2738665824449811</v>
+        <v>0.2260611977130154</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1220344124437069</v>
       </c>
       <c r="M10">
-        <v>5.335973251451094</v>
+        <v>0.07290452166794381</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.532463491317358</v>
+        <v>5.318375444471144</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.848954692696978</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.529801811855549</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.7320267068076873</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1311546875360534</v>
+        <v>0.09095251886664357</v>
       </c>
       <c r="D11">
-        <v>0.1426830002967847</v>
+        <v>0.1571677987974027</v>
       </c>
       <c r="E11">
-        <v>0.1271574246289617</v>
+        <v>0.1225469311406648</v>
       </c>
       <c r="F11">
-        <v>0.3266375359054905</v>
+        <v>0.2795122511624442</v>
       </c>
       <c r="G11">
-        <v>0.1885148246498503</v>
+        <v>0.1874153060791457</v>
       </c>
       <c r="H11">
-        <v>0.02364478502669698</v>
+        <v>0.02309083712743387</v>
       </c>
       <c r="I11">
-        <v>0.02745997999349914</v>
+        <v>0.02361822839912531</v>
       </c>
       <c r="J11">
-        <v>0.1724068612285166</v>
+        <v>0.1553373800811002</v>
       </c>
       <c r="K11">
-        <v>0.2414891381260098</v>
+        <v>0.1939029558108238</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1068820240401749</v>
       </c>
       <c r="M11">
-        <v>5.96308474628745</v>
+        <v>0.06553026673490336</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.311067813901985</v>
+        <v>5.942717586327831</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.7113309607704679</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.308556859054988</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.5905421761166565</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1411060524312688</v>
+        <v>0.1022035500306231</v>
       </c>
       <c r="D12">
-        <v>0.1565187425367043</v>
+        <v>0.1722546103023461</v>
       </c>
       <c r="E12">
-        <v>0.06003570031331318</v>
+        <v>0.05558740187704991</v>
       </c>
       <c r="F12">
-        <v>0.2912004259071495</v>
+        <v>0.2455527290152446</v>
       </c>
       <c r="G12">
-        <v>0.1560750631909897</v>
+        <v>0.1665284602062016</v>
       </c>
       <c r="H12">
-        <v>0.06158744872710287</v>
+        <v>0.06106299050436803</v>
       </c>
       <c r="I12">
-        <v>0.02826748500267939</v>
+        <v>0.02422711797148658</v>
       </c>
       <c r="J12">
-        <v>0.1536674799070283</v>
+        <v>0.1374482596852005</v>
       </c>
       <c r="K12">
-        <v>0.2145464954148224</v>
+        <v>0.170661708097601</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.09771962077324581</v>
       </c>
       <c r="M12">
-        <v>6.328960726120556</v>
+        <v>0.05789389574904646</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.097791972110521</v>
+        <v>6.307458850494697</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.6033966392021597</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.095635066198128</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.4927016947149241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1471654915418981</v>
+        <v>0.1103394198275396</v>
       </c>
       <c r="D13">
-        <v>0.1660985879855303</v>
+        <v>0.181280584216168</v>
       </c>
       <c r="E13">
-        <v>0.05499811440985169</v>
+        <v>0.05089270076175545</v>
       </c>
       <c r="F13">
-        <v>0.2542031441688835</v>
+        <v>0.215196863762479</v>
       </c>
       <c r="G13">
-        <v>0.1259610173774206</v>
+        <v>0.1345732531427615</v>
       </c>
       <c r="H13">
-        <v>0.1165499432409831</v>
+        <v>0.1160891259937529</v>
       </c>
       <c r="I13">
-        <v>0.02774813890503935</v>
+        <v>0.02382414782466924</v>
       </c>
       <c r="J13">
-        <v>0.137669950150574</v>
+        <v>0.1322586648168578</v>
       </c>
       <c r="K13">
-        <v>0.1879195650714003</v>
+        <v>0.1513196526392129</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.09154185744160159</v>
       </c>
       <c r="M13">
-        <v>6.510982800924921</v>
+        <v>0.04931410409136916</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.8797394000741718</v>
+        <v>6.489793803098451</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.5060425010145622</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.8780623305207129</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.4179489173528168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1492160336534596</v>
+        <v>0.1142860967015764</v>
       </c>
       <c r="D14">
-        <v>0.1709728398579955</v>
+        <v>0.1849056005285945</v>
       </c>
       <c r="E14">
-        <v>0.08770002128776966</v>
+        <v>0.08389718415273961</v>
       </c>
       <c r="F14">
-        <v>0.2276870942246774</v>
+        <v>0.1952167739070561</v>
       </c>
       <c r="G14">
-        <v>0.106182820926584</v>
+        <v>0.1090547683832455</v>
       </c>
       <c r="H14">
-        <v>0.16535898128474</v>
+        <v>0.1649523677804012</v>
       </c>
       <c r="I14">
-        <v>0.02685833419911177</v>
+        <v>0.02316927409526581</v>
       </c>
       <c r="J14">
-        <v>0.1277867577068648</v>
+        <v>0.1322593226436624</v>
       </c>
       <c r="K14">
-        <v>0.1693782215437736</v>
+        <v>0.1391590380241148</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08827286506343412</v>
       </c>
       <c r="M14">
-        <v>6.554829491919634</v>
+        <v>0.04289360922238572</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.7287333452188705</v>
+        <v>6.534516568934862</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.4433655754564825</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.7274086190046916</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.3749275614424761</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1481819065352994</v>
+        <v>0.1139455255496244</v>
       </c>
       <c r="D15">
-        <v>0.1712459998578595</v>
+        <v>0.1845092587101504</v>
       </c>
       <c r="E15">
-        <v>0.1000454697606656</v>
+        <v>0.09635885391635668</v>
       </c>
       <c r="F15">
-        <v>0.2204224168246043</v>
+        <v>0.1904102645161885</v>
       </c>
       <c r="G15">
-        <v>0.101286795817046</v>
+        <v>0.1010948248429173</v>
       </c>
       <c r="H15">
-        <v>0.1776652143610988</v>
+        <v>0.1772811185586676</v>
       </c>
       <c r="I15">
-        <v>0.02642712171241435</v>
+        <v>0.02288741182429721</v>
       </c>
       <c r="J15">
-        <v>0.1256976357911412</v>
+        <v>0.1337493190630941</v>
       </c>
       <c r="K15">
-        <v>0.164393889172576</v>
+        <v>0.1363767542074399</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08780387095402453</v>
       </c>
       <c r="M15">
-        <v>6.523970590677493</v>
+        <v>0.04094549059300334</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.6890935365597031</v>
+        <v>6.504191645936089</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.428577587773006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.6878716583586382</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.3667941226690701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1382255846598781</v>
+        <v>0.105403735607652</v>
       </c>
       <c r="D16">
-        <v>0.160892178577015</v>
+        <v>0.1711445616789433</v>
       </c>
       <c r="E16">
-        <v>0.09425048387982926</v>
+        <v>0.09099198737355607</v>
       </c>
       <c r="F16">
-        <v>0.2152750442396254</v>
+        <v>0.1927161810525142</v>
       </c>
       <c r="G16">
-        <v>0.1013838451220792</v>
+        <v>0.08728879998641048</v>
       </c>
       <c r="H16">
-        <v>0.1640185284449984</v>
+        <v>0.1637323087975062</v>
       </c>
       <c r="I16">
-        <v>0.02371261527438318</v>
+        <v>0.02082970221118874</v>
       </c>
       <c r="J16">
-        <v>0.129451469433377</v>
+        <v>0.1503938816645842</v>
       </c>
       <c r="K16">
-        <v>0.1629458249682791</v>
+        <v>0.1403199296721063</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.09187081810800812</v>
       </c>
       <c r="M16">
-        <v>6.118047685213298</v>
+        <v>0.03813180678542061</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.6510451198430758</v>
+        <v>6.10116674519071</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.4364417144981729</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.6500289351773247</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.3911751652932054</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1294740325444366</v>
+        <v>0.09699499255583532</v>
       </c>
       <c r="D17">
-        <v>0.1503924225226569</v>
+        <v>0.1593886890449738</v>
       </c>
       <c r="E17">
-        <v>0.06671194753039522</v>
+        <v>0.06362028982653634</v>
       </c>
       <c r="F17">
-        <v>0.2253495062304154</v>
+        <v>0.204682685140007</v>
       </c>
       <c r="G17">
-        <v>0.1118004673582789</v>
+        <v>0.09091365000912077</v>
       </c>
       <c r="H17">
-        <v>0.1258131309060815</v>
+        <v>0.1255700502231605</v>
       </c>
       <c r="I17">
-        <v>0.0221597817246737</v>
+        <v>0.01963589816634226</v>
       </c>
       <c r="J17">
-        <v>0.1375580012282853</v>
+        <v>0.1644910923375882</v>
       </c>
       <c r="K17">
-        <v>0.1715538074610592</v>
+        <v>0.1495458216295802</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.09691869809067377</v>
       </c>
       <c r="M17">
-        <v>5.784631934220329</v>
+        <v>0.03909563608140587</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.6992634431373261</v>
+        <v>5.769345825220171</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.4753723267772898</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.6982476905781709</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.4324351189604556</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1222252513992714</v>
+        <v>0.08877526491629339</v>
       </c>
       <c r="D18">
-        <v>0.1386206232522937</v>
+        <v>0.1472617386795321</v>
       </c>
       <c r="E18">
-        <v>0.0490922405369093</v>
+        <v>0.0459586944036291</v>
       </c>
       <c r="F18">
-        <v>0.2510979834260425</v>
+        <v>0.2287843676700092</v>
       </c>
       <c r="G18">
-        <v>0.1341649720738403</v>
+        <v>0.1076882496076621</v>
       </c>
       <c r="H18">
-        <v>0.07304932809380915</v>
+        <v>0.07280726341857502</v>
       </c>
       <c r="I18">
-        <v>0.02121228709848122</v>
+        <v>0.01880025414881725</v>
       </c>
       <c r="J18">
-        <v>0.151170940478579</v>
+        <v>0.1797255071698274</v>
       </c>
       <c r="K18">
-        <v>0.1913572473450316</v>
+        <v>0.1664364764557007</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.104195205151294</v>
       </c>
       <c r="M18">
-        <v>5.480047697575571</v>
+        <v>0.04406670041152694</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.8365910836877575</v>
+        <v>5.465551640470267</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.5512174768596481</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.8354083385018782</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.5008033558493139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1143154419265073</v>
+        <v>0.0794893711013458</v>
       </c>
       <c r="D19">
-        <v>0.1275962867598395</v>
+        <v>0.1364012998503483</v>
       </c>
       <c r="E19">
-        <v>0.0880726258259763</v>
+        <v>0.08470551307791219</v>
       </c>
       <c r="F19">
-        <v>0.2871869070674578</v>
+        <v>0.2608608956641447</v>
       </c>
       <c r="G19">
-        <v>0.1652730342426523</v>
+        <v>0.1333507581749132</v>
       </c>
       <c r="H19">
-        <v>0.02848397170805583</v>
+        <v>0.02819861133377799</v>
       </c>
       <c r="I19">
-        <v>0.0212691895997299</v>
+        <v>0.01888331212796679</v>
       </c>
       <c r="J19">
-        <v>0.1683870711836235</v>
+        <v>0.1956512512757769</v>
       </c>
       <c r="K19">
-        <v>0.2177797094421514</v>
+        <v>0.1875977502037678</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1124306496609151</v>
       </c>
       <c r="M19">
-        <v>5.225990590444155</v>
+        <v>0.05165541959364006</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.051134101511373</v>
+        <v>5.21163853107123</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.6531949240052626</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>1.04963052734827</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.5884643589302385</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.109509428155647</v>
+        <v>0.07119499669660456</v>
       </c>
       <c r="D20">
-        <v>0.1178062955572869</v>
+        <v>0.1280253790163357</v>
       </c>
       <c r="E20">
-        <v>0.2764417954043097</v>
+        <v>0.2722508081197574</v>
       </c>
       <c r="F20">
-        <v>0.3540729380155838</v>
+        <v>0.3164926145784293</v>
       </c>
       <c r="G20">
-        <v>0.2220267317641955</v>
+        <v>0.1865334448727722</v>
       </c>
       <c r="H20">
-        <v>0.005022433453043096</v>
+        <v>0.004556565750227559</v>
       </c>
       <c r="I20">
-        <v>0.02340850799644745</v>
+        <v>0.02058566829292907</v>
       </c>
       <c r="J20">
-        <v>0.1962079463029056</v>
+        <v>0.2107992053120924</v>
       </c>
       <c r="K20">
-        <v>0.2655330263568878</v>
+        <v>0.2226814504606693</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1232739952742854</v>
       </c>
       <c r="M20">
-        <v>5.117143774881356</v>
+        <v>0.06813829302953778</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.476254047108483</v>
+        <v>5.101179965844892</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.8318900677561061</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.473885476085712</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.730675154337078</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1225256198516718</v>
+        <v>0.08080350372559764</v>
       </c>
       <c r="D21">
-        <v>0.1302826923600975</v>
+        <v>0.1459300769830207</v>
       </c>
       <c r="E21">
-        <v>0.3265338104707141</v>
+        <v>0.3211350525704901</v>
       </c>
       <c r="F21">
-        <v>0.386221273263132</v>
+        <v>0.3266161086972517</v>
       </c>
       <c r="G21">
-        <v>0.2413409220348157</v>
+        <v>0.2481958810479199</v>
       </c>
       <c r="H21">
-        <v>0.007671449213893511</v>
+        <v>0.006932522336887015</v>
       </c>
       <c r="I21">
-        <v>0.02869631907039683</v>
+        <v>0.02462448496967351</v>
       </c>
       <c r="J21">
-        <v>0.1995302053943959</v>
+        <v>0.160919807366934</v>
       </c>
       <c r="K21">
-        <v>0.2845847614215131</v>
+        <v>0.2240516399790202</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1167181363441223</v>
       </c>
       <c r="M21">
-        <v>5.716412364704468</v>
+        <v>0.07879113497054746</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.694630012688506</v>
+        <v>5.695148485858056</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.8801494592619008</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.691175846096385</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.7173410933316831</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1329617704632824</v>
+        <v>0.08897791299283142</v>
       </c>
       <c r="D22">
-        <v>0.1387979796187437</v>
+        <v>0.1583195244805751</v>
       </c>
       <c r="E22">
-        <v>0.3469884225630011</v>
+        <v>0.3408379006506266</v>
       </c>
       <c r="F22">
-        <v>0.4063748141202908</v>
+        <v>0.3314545869282099</v>
       </c>
       <c r="G22">
-        <v>0.2531516631941457</v>
+        <v>0.2948883014206274</v>
       </c>
       <c r="H22">
-        <v>0.009587126452130602</v>
+        <v>0.008650799570873474</v>
       </c>
       <c r="I22">
-        <v>0.03213966505007626</v>
+        <v>0.02711688233817089</v>
       </c>
       <c r="J22">
-        <v>0.2013121570416985</v>
+        <v>0.1359261485841934</v>
       </c>
       <c r="K22">
-        <v>0.2969339935801614</v>
+        <v>0.224251609956486</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1123451294259858</v>
       </c>
       <c r="M22">
-        <v>6.122209189125726</v>
+        <v>0.0857675377388567</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.818369621252344</v>
+        <v>6.097322003144711</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.9091461621680139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.81416451130373</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.7038900632270355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1289458404236257</v>
+        <v>0.08545904404520854</v>
       </c>
       <c r="D23">
-        <v>0.1339621810950007</v>
+        <v>0.1509744815990075</v>
       </c>
       <c r="E23">
-        <v>0.3361014150899706</v>
+        <v>0.3303831709298422</v>
       </c>
       <c r="F23">
-        <v>0.396880160906413</v>
+        <v>0.3316406479120673</v>
       </c>
       <c r="G23">
-        <v>0.2480066969805392</v>
+        <v>0.2649738733199172</v>
       </c>
       <c r="H23">
-        <v>0.008547278029048477</v>
+        <v>0.007723313042216295</v>
       </c>
       <c r="I23">
-        <v>0.0300741478342248</v>
+        <v>0.02551383139852703</v>
       </c>
       <c r="J23">
-        <v>0.2009498726489198</v>
+        <v>0.152248743806858</v>
       </c>
       <c r="K23">
-        <v>0.2919630884739775</v>
+        <v>0.2265691309129281</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1154737804276458</v>
       </c>
       <c r="M23">
-        <v>5.905769234305353</v>
+        <v>0.08305539953235552</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.752325555426879</v>
+        <v>5.882960782916314</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.8973604204977192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.748551095118302</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.7187546896257544</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1110320437450838</v>
+        <v>0.07207055350013292</v>
       </c>
       <c r="D24">
-        <v>0.1161557181371222</v>
+        <v>0.1263320462531112</v>
       </c>
       <c r="E24">
-        <v>0.2950021698705427</v>
+        <v>0.2907713051076399</v>
       </c>
       <c r="F24">
-        <v>0.360274844946062</v>
+        <v>0.322144196773948</v>
       </c>
       <c r="G24">
-        <v>0.2278680371088981</v>
+        <v>0.1913095740025739</v>
       </c>
       <c r="H24">
-        <v>0.005084994038358603</v>
+        <v>0.004609966424862166</v>
       </c>
       <c r="I24">
-        <v>0.02304170614597734</v>
+        <v>0.02011346733945718</v>
       </c>
       <c r="J24">
-        <v>0.1993389374078305</v>
+        <v>0.2139449710454926</v>
       </c>
       <c r="K24">
-        <v>0.271214457430542</v>
+        <v>0.2274488497882778</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1251251829932229</v>
       </c>
       <c r="M24">
-        <v>5.08599789615846</v>
+        <v>0.06987332417482151</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.502690722303612</v>
+        <v>5.070048053127607</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.8508262502654134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.500276825452758</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.7474132547272774</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0913915709601838</v>
+        <v>0.06080550546785446</v>
       </c>
       <c r="D25">
-        <v>0.09699181111763977</v>
+        <v>0.1044099790746031</v>
       </c>
       <c r="E25">
-        <v>0.2509786462461179</v>
+        <v>0.2478825882900324</v>
       </c>
       <c r="F25">
-        <v>0.3237398080645946</v>
+        <v>0.2960284409793132</v>
       </c>
       <c r="G25">
-        <v>0.2087194347604751</v>
+        <v>0.1739669505394872</v>
       </c>
       <c r="H25">
-        <v>0.002265381026075763</v>
+        <v>0.002030994415709086</v>
       </c>
       <c r="I25">
-        <v>0.01635477830944687</v>
+        <v>0.01472890891911938</v>
       </c>
       <c r="J25">
-        <v>0.1991406637850091</v>
+        <v>0.2222699992356141</v>
       </c>
       <c r="K25">
-        <v>0.2503768373900677</v>
+        <v>0.2173271757922777</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1318796048741007</v>
       </c>
       <c r="M25">
-        <v>4.201434709194871</v>
+        <v>0.05278875966104479</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.234208471542857</v>
+        <v>4.190499088078582</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.8092854035936909</v>
+        <v>1.232742557563299</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.7339831182558356</v>
       </c>
     </row>
   </sheetData>
